--- a/output_files/cl_3_rollreg.xlsx
+++ b/output_files/cl_3_rollreg.xlsx
@@ -16,7 +16,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+  <si>
+    <t>GLC RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>GLC CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qGlucose (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rGLC</t>
+  </si>
+  <si>
+    <t>LAC RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>LAC CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qLactate (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rLAC</t>
+  </si>
+  <si>
+    <t>GLN RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>GLN CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qGlutamine (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rGLN</t>
+  </si>
+  <si>
+    <t>ASN RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>ASN CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qAsparagine (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rASN</t>
+  </si>
+  <si>
+    <t>ASP RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>ASP CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qAspartate (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rASP</t>
+  </si>
+  <si>
+    <t>CELL RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>Sp. Growth (1/hr)</t>
+  </si>
+  <si>
+    <t>mu_max</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>K_mu</t>
+  </si>
   <si>
     <t>Roll. Poly. Reg DL/DG (mmol/mmol)</t>
   </si>
@@ -379,130 +454,1045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
-        <v>0.5954495030705298</v>
-      </c>
-      <c r="B2">
-        <v>-0.09424113779227462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10.95000000006985</v>
+      </c>
+      <c r="C2">
+        <v>0.1780652683204817</v>
+      </c>
+      <c r="D2">
+        <v>111.290792700301</v>
+      </c>
+      <c r="E2">
+        <v>10.95000000006985</v>
+      </c>
+      <c r="G2">
+        <v>0.1072022773306603</v>
+      </c>
+      <c r="H2">
+        <v>67.00142333166266</v>
+      </c>
+      <c r="I2">
+        <v>10.95000000006985</v>
+      </c>
+      <c r="K2">
+        <v>-0.01696678649905218</v>
+      </c>
+      <c r="L2">
+        <v>-10.60424156190761</v>
+      </c>
+      <c r="M2">
+        <v>10.95000000006985</v>
+      </c>
+      <c r="O2">
+        <v>0.08212662829559864</v>
+      </c>
+      <c r="P2">
+        <v>51.32914268474914</v>
+      </c>
+      <c r="Q2">
+        <v>10.95000000006985</v>
+      </c>
+      <c r="S2">
+        <v>-0.009014801622085514</v>
+      </c>
+      <c r="T2">
+        <v>-5.634251013803446</v>
+      </c>
+      <c r="U2">
+        <v>10.95000000006985</v>
+      </c>
+      <c r="V2">
+        <v>0.02577953683870721</v>
+      </c>
+      <c r="W2">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X2">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y2">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z2">
+        <v>0.6020392316918184</v>
+      </c>
+      <c r="AA2">
+        <v>-0.09528408689175351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
-        <v>0.6956109527847913</v>
-      </c>
-      <c r="B3">
-        <v>-0.09115530612990511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>34.91666666671517</v>
+      </c>
+      <c r="C3">
+        <v>0.0940822711694253</v>
+      </c>
+      <c r="D3">
+        <v>58.80141948089081</v>
+      </c>
+      <c r="E3">
+        <v>34.91666666671517</v>
+      </c>
+      <c r="G3">
+        <v>0.05825151636494567</v>
+      </c>
+      <c r="H3">
+        <v>36.40719772809104</v>
+      </c>
+      <c r="I3">
+        <v>34.91666666671517</v>
+      </c>
+      <c r="K3">
+        <v>-0.007633483609652983</v>
+      </c>
+      <c r="L3">
+        <v>-4.770927256033114</v>
+      </c>
+      <c r="M3">
+        <v>34.91666666671517</v>
+      </c>
+      <c r="O3">
+        <v>0.06057668102972062</v>
+      </c>
+      <c r="P3">
+        <v>37.86042564357539</v>
+      </c>
+      <c r="Q3">
+        <v>34.91666666671517</v>
+      </c>
+      <c r="S3">
+        <v>0.008146313520098781</v>
+      </c>
+      <c r="T3">
+        <v>5.091445950061738</v>
+      </c>
+      <c r="U3">
+        <v>34.91666666671517</v>
+      </c>
+      <c r="V3">
+        <v>0.0253440921387017</v>
+      </c>
+      <c r="W3">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X3">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y3">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z3">
+        <v>0.6191550824707998</v>
+      </c>
+      <c r="AA3">
+        <v>-0.08113625994324103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
-        <v>2.776545510184955</v>
-      </c>
-      <c r="B4">
-        <v>-0.4033132154221147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>59.80000000004657</v>
+      </c>
+      <c r="C4">
+        <v>0.07713464326463217</v>
+      </c>
+      <c r="D4">
+        <v>48.2091520403951</v>
+      </c>
+      <c r="E4">
+        <v>59.80000000004657</v>
+      </c>
+      <c r="G4">
+        <v>0.04004774144015028</v>
+      </c>
+      <c r="H4">
+        <v>25.02983840009392</v>
+      </c>
+      <c r="I4">
+        <v>59.80000000004657</v>
+      </c>
+      <c r="K4">
+        <v>-0.005817222628396448</v>
+      </c>
+      <c r="L4">
+        <v>-3.63576414274778</v>
+      </c>
+      <c r="M4">
+        <v>59.80000000004657</v>
+      </c>
+      <c r="O4">
+        <v>0.01683501676563343</v>
+      </c>
+      <c r="P4">
+        <v>10.52188547852089</v>
+      </c>
+      <c r="Q4">
+        <v>59.80000000004657</v>
+      </c>
+      <c r="S4">
+        <v>0.005662144164099187</v>
+      </c>
+      <c r="T4">
+        <v>3.538840102561991</v>
+      </c>
+      <c r="U4">
+        <v>59.80000000004657</v>
+      </c>
+      <c r="V4">
+        <v>0.02452552915432918</v>
+      </c>
+      <c r="W4">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X4">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y4">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z4">
+        <v>0.5191926707012204</v>
+      </c>
+      <c r="AA4">
+        <v>-0.07541647153846066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
-        <v>-0.9738635678629358</v>
-      </c>
-      <c r="B5">
-        <v>0.1512682563350815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>83.29166666671517</v>
+      </c>
+      <c r="C5">
+        <v>0.07364448335966364</v>
+      </c>
+      <c r="D5">
+        <v>46.02780209978977</v>
+      </c>
+      <c r="E5">
+        <v>83.29166666671517</v>
+      </c>
+      <c r="G5">
+        <v>0.0306363616859518</v>
+      </c>
+      <c r="H5">
+        <v>19.14772605371988</v>
+      </c>
+      <c r="I5">
+        <v>83.29166666671517</v>
+      </c>
+      <c r="K5">
+        <v>-0.004758684035028066</v>
+      </c>
+      <c r="L5">
+        <v>-2.974177521892541</v>
+      </c>
+      <c r="M5">
+        <v>83.29166666671517</v>
+      </c>
+      <c r="O5">
+        <v>-0.02249827464798157</v>
+      </c>
+      <c r="P5">
+        <v>-14.06142165498848</v>
+      </c>
+      <c r="Q5">
+        <v>83.29166666671517</v>
+      </c>
+      <c r="S5">
+        <v>2.3471025846788E-05</v>
+      </c>
+      <c r="T5">
+        <v>0.0146693911542425</v>
+      </c>
+      <c r="U5">
+        <v>83.29166666671517</v>
+      </c>
+      <c r="V5">
+        <v>0.02319233077333779</v>
+      </c>
+      <c r="W5">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X5">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y5">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z5">
+        <v>0.4160034844202854</v>
+      </c>
+      <c r="AA5">
+        <v>-0.0646169790042207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
-        <v>-1.117531537941273</v>
-      </c>
-      <c r="B6">
-        <v>0.2027807401322205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>105.7500000000873</v>
+      </c>
+      <c r="C6">
+        <v>0.06567039505379062</v>
+      </c>
+      <c r="D6">
+        <v>41.04399690861914</v>
+      </c>
+      <c r="E6">
+        <v>105.7500000000873</v>
+      </c>
+      <c r="G6">
+        <v>0.02931160240305927</v>
+      </c>
+      <c r="H6">
+        <v>18.31975150191204</v>
+      </c>
+      <c r="I6">
+        <v>105.7500000000873</v>
+      </c>
+      <c r="K6">
+        <v>-0.005318712025526823</v>
+      </c>
+      <c r="L6">
+        <v>-3.324195015954264</v>
+      </c>
+      <c r="M6">
+        <v>105.7500000000873</v>
+      </c>
+      <c r="O6">
+        <v>-0.01407193152053344</v>
+      </c>
+      <c r="P6">
+        <v>-8.794957200333402</v>
+      </c>
+      <c r="Q6">
+        <v>105.7500000000873</v>
+      </c>
+      <c r="S6">
+        <v>-0.002068582724805159</v>
+      </c>
+      <c r="T6">
+        <v>-1.292864203003224</v>
+      </c>
+      <c r="U6">
+        <v>105.7500000000873</v>
+      </c>
+      <c r="V6">
+        <v>0.02118111435281489</v>
+      </c>
+      <c r="W6">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X6">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y6">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z6">
+        <v>0.4463442374459624</v>
+      </c>
+      <c r="AA6">
+        <v>-0.08099101613703201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
-        <v>32.99367453257419</v>
-      </c>
-      <c r="B7">
-        <v>-7.501916253555377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>128.5666666667385</v>
+      </c>
+      <c r="C7">
+        <v>0.05774951074432767</v>
+      </c>
+      <c r="D7">
+        <v>36.09344421520479</v>
+      </c>
+      <c r="E7">
+        <v>128.5666666667385</v>
+      </c>
+      <c r="G7">
+        <v>0.02011595154104221</v>
+      </c>
+      <c r="H7">
+        <v>12.57246971315138</v>
+      </c>
+      <c r="I7">
+        <v>128.5666666667385</v>
+      </c>
+      <c r="K7">
+        <v>-0.004573851987067624</v>
+      </c>
+      <c r="L7">
+        <v>-2.858657491917265</v>
+      </c>
+      <c r="M7">
+        <v>128.5666666667385</v>
+      </c>
+      <c r="O7">
+        <v>-0.0003041522415433406</v>
+      </c>
+      <c r="P7">
+        <v>-0.1900951509645879</v>
+      </c>
+      <c r="Q7">
+        <v>128.5666666667385</v>
+      </c>
+      <c r="S7">
+        <v>-0.002955099293826609</v>
+      </c>
+      <c r="T7">
+        <v>-1.84693705864163</v>
+      </c>
+      <c r="U7">
+        <v>128.5666666667385</v>
+      </c>
+      <c r="V7">
+        <v>0.0182620322933073</v>
+      </c>
+      <c r="W7">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X7">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y7">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z7">
+        <v>0.3483311162600293</v>
+      </c>
+      <c r="AA7">
+        <v>-0.07920157120148211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
-        <v>0.5389907526193275</v>
-      </c>
-      <c r="B8">
-        <v>-0.2695929003219809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>152.9916666667268</v>
+      </c>
+      <c r="C8">
+        <v>0.04839552876278937</v>
+      </c>
+      <c r="D8">
+        <v>30.24720547674336</v>
+      </c>
+      <c r="E8">
+        <v>152.9916666667268</v>
+      </c>
+      <c r="G8">
+        <v>0.009941119120016082</v>
+      </c>
+      <c r="H8">
+        <v>6.213199450010051</v>
+      </c>
+      <c r="I8">
+        <v>152.9916666667268</v>
+      </c>
+      <c r="K8">
+        <v>-0.004972358288128691</v>
+      </c>
+      <c r="L8">
+        <v>-3.107723930080431</v>
+      </c>
+      <c r="M8">
+        <v>152.9916666667268</v>
+      </c>
+      <c r="O8">
+        <v>0.01101309183372396</v>
+      </c>
+      <c r="P8">
+        <v>6.883182396077472</v>
+      </c>
+      <c r="Q8">
+        <v>152.9916666667268</v>
+      </c>
+      <c r="S8">
+        <v>-0.003652331429717254</v>
+      </c>
+      <c r="T8">
+        <v>-2.282707143573284</v>
+      </c>
+      <c r="U8">
+        <v>152.9916666667268</v>
+      </c>
+      <c r="V8">
+        <v>0.01432154692852939</v>
+      </c>
+      <c r="W8">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X8">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y8">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z8">
+        <v>0.2054139994779779</v>
+      </c>
+      <c r="AA8">
+        <v>-0.1027441669766787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
-        <v>-0.05893636501835538</v>
-      </c>
-      <c r="B9">
-        <v>-0.1463549279568706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>177.0083333333605</v>
+      </c>
+      <c r="C9">
+        <v>0.04328716459924691</v>
+      </c>
+      <c r="D9">
+        <v>27.05447787452932</v>
+      </c>
+      <c r="E9">
+        <v>177.0083333333605</v>
+      </c>
+      <c r="G9">
+        <v>-0.001998180717629748</v>
+      </c>
+      <c r="H9">
+        <v>-1.248862948518592</v>
+      </c>
+      <c r="I9">
+        <v>177.0083333333605</v>
+      </c>
+      <c r="K9">
+        <v>-0.004962022935795751</v>
+      </c>
+      <c r="L9">
+        <v>-3.101264334872344</v>
+      </c>
+      <c r="M9">
+        <v>177.0083333333605</v>
+      </c>
+      <c r="O9">
+        <v>0.01088542582709645</v>
+      </c>
+      <c r="P9">
+        <v>6.803391141935283</v>
+      </c>
+      <c r="Q9">
+        <v>177.0083333333605</v>
+      </c>
+      <c r="S9">
+        <v>-0.001946506855311062</v>
+      </c>
+      <c r="T9">
+        <v>-1.216566784569414</v>
+      </c>
+      <c r="U9">
+        <v>177.0083333333605</v>
+      </c>
+      <c r="V9">
+        <v>0.01022321267656656</v>
+      </c>
+      <c r="W9">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X9">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y9">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z9">
+        <v>-0.04616104418316444</v>
+      </c>
+      <c r="AA9">
+        <v>-0.1146303524782512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
-        <v>-0.3289437680381777</v>
-      </c>
-      <c r="B10">
-        <v>-0.1299964974598183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>201.1749999999593</v>
+      </c>
+      <c r="C10">
+        <v>0.03405384365838593</v>
+      </c>
+      <c r="D10">
+        <v>21.2836522864912</v>
+      </c>
+      <c r="E10">
+        <v>201.1749999999593</v>
+      </c>
+      <c r="G10">
+        <v>-0.010825293851593</v>
+      </c>
+      <c r="H10">
+        <v>-6.765808657245623</v>
+      </c>
+      <c r="I10">
+        <v>201.1749999999593</v>
+      </c>
+      <c r="K10">
+        <v>-0.004278087689799516</v>
+      </c>
+      <c r="L10">
+        <v>-2.673804806124697</v>
+      </c>
+      <c r="M10">
+        <v>201.1749999999593</v>
+      </c>
+      <c r="O10">
+        <v>0.006282938760997229</v>
+      </c>
+      <c r="P10">
+        <v>3.926836725623268</v>
+      </c>
+      <c r="Q10">
+        <v>201.1749999999593</v>
+      </c>
+      <c r="S10">
+        <v>0.0009162823337213994</v>
+      </c>
+      <c r="T10">
+        <v>0.5726764585758746</v>
+      </c>
+      <c r="U10">
+        <v>201.1749999999593</v>
+      </c>
+      <c r="V10">
+        <v>0.006627027306358032</v>
+      </c>
+      <c r="W10">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X10">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y10">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z10">
+        <v>-0.3178875771025399</v>
+      </c>
+      <c r="AA10">
+        <v>-0.1256271607021963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
-        <v>-0.6728991570170425</v>
-      </c>
-      <c r="B11">
-        <v>-0.07770501519302224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>225.7083333333721</v>
+      </c>
+      <c r="C11">
+        <v>0.02997011501477765</v>
+      </c>
+      <c r="D11">
+        <v>18.73132188423603</v>
+      </c>
+      <c r="E11">
+        <v>225.7083333333721</v>
+      </c>
+      <c r="G11">
+        <v>-0.01018067672209661</v>
+      </c>
+      <c r="H11">
+        <v>-6.362922951310384</v>
+      </c>
+      <c r="I11">
+        <v>225.7083333333721</v>
+      </c>
+      <c r="K11">
+        <v>-0.00117564367723785</v>
+      </c>
+      <c r="L11">
+        <v>-0.7347772982736562</v>
+      </c>
+      <c r="M11">
+        <v>225.7083333333721</v>
+      </c>
+      <c r="O11">
+        <v>0.0002209350295491638</v>
+      </c>
+      <c r="P11">
+        <v>0.1380843934682274</v>
+      </c>
+      <c r="Q11">
+        <v>225.7083333333721</v>
+      </c>
+      <c r="S11">
+        <v>0.001520889589371395</v>
+      </c>
+      <c r="T11">
+        <v>0.9505559933571216</v>
+      </c>
+      <c r="U11">
+        <v>225.7083333333721</v>
+      </c>
+      <c r="V11">
+        <v>0.003949916614040534</v>
+      </c>
+      <c r="W11">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X11">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y11">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z11">
+        <v>-0.339694282690498</v>
+      </c>
+      <c r="AA11">
+        <v>-0.0392271993837249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
-        <v>-5.074757292568242</v>
-      </c>
-      <c r="B12">
-        <v>6.28423338056831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>250.0916666667326</v>
+      </c>
+      <c r="C12">
+        <v>0.0358727087069506</v>
+      </c>
+      <c r="D12">
+        <v>22.42044294184412</v>
+      </c>
+      <c r="E12">
+        <v>250.0916666667326</v>
+      </c>
+      <c r="G12">
+        <v>-0.002725402221850634</v>
+      </c>
+      <c r="H12">
+        <v>-1.703376388656646</v>
+      </c>
+      <c r="I12">
+        <v>250.0916666667326</v>
+      </c>
+      <c r="K12">
+        <v>0.00337495226483257</v>
+      </c>
+      <c r="L12">
+        <v>2.109345165520356</v>
+      </c>
+      <c r="M12">
+        <v>250.0916666667326</v>
+      </c>
+      <c r="O12">
+        <v>-0.0004247752492762877</v>
+      </c>
+      <c r="P12">
+        <v>-0.2654845307976798</v>
+      </c>
+      <c r="Q12">
+        <v>250.0916666667326</v>
+      </c>
+      <c r="S12">
+        <v>0.0003876428532798592</v>
+      </c>
+      <c r="T12">
+        <v>0.242276783299912</v>
+      </c>
+      <c r="U12">
+        <v>250.0916666667326</v>
+      </c>
+      <c r="V12">
+        <v>0.002239631296964318</v>
+      </c>
+      <c r="W12">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X12">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y12">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z12">
+        <v>-0.07597425229621892</v>
+      </c>
+      <c r="AA12">
+        <v>0.09408133331672969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
-        <v>0.03187343128827155</v>
-      </c>
-      <c r="B13">
-        <v>-0.6329763280616615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>273.4166666667152</v>
+      </c>
+      <c r="C13">
+        <v>0.04536049186705293</v>
+      </c>
+      <c r="D13">
+        <v>28.35030741690808</v>
+      </c>
+      <c r="E13">
+        <v>273.4166666667152</v>
+      </c>
+      <c r="G13">
+        <v>-0.0002323348575010468</v>
+      </c>
+      <c r="H13">
+        <v>-0.1452092859381543</v>
+      </c>
+      <c r="I13">
+        <v>273.4166666667152</v>
+      </c>
+      <c r="K13">
+        <v>0.004613951464831982</v>
+      </c>
+      <c r="L13">
+        <v>2.883719665519989</v>
+      </c>
+      <c r="M13">
+        <v>273.4166666667152</v>
+      </c>
+      <c r="O13">
+        <v>-5.558603402006652E-08</v>
+      </c>
+      <c r="P13">
+        <v>-3.474127126254157E-05</v>
+      </c>
+      <c r="Q13">
+        <v>273.4166666667152</v>
+      </c>
+      <c r="S13">
+        <v>-3.275520636749672E-05</v>
+      </c>
+      <c r="T13">
+        <v>-0.02047200397968545</v>
+      </c>
+      <c r="U13">
+        <v>273.4166666667152</v>
+      </c>
+      <c r="V13">
+        <v>0.00126217021978214</v>
+      </c>
+      <c r="W13">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X13">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y13">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z13">
+        <v>-0.00512196512731822</v>
+      </c>
+      <c r="AA13">
+        <v>0.1017174037343998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
-        <v>0.07506716139757257</v>
-      </c>
-      <c r="B14">
-        <v>-0.2704804185147776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>296.8333333334012</v>
+      </c>
+      <c r="C14">
+        <v>0.04963207175859587</v>
+      </c>
+      <c r="D14">
+        <v>31.02004484912241</v>
+      </c>
+      <c r="E14">
+        <v>296.8333333334012</v>
+      </c>
+      <c r="G14">
+        <v>-0.000647869734832494</v>
+      </c>
+      <c r="H14">
+        <v>-0.4049185842703087</v>
+      </c>
+      <c r="I14">
+        <v>296.8333333334012</v>
+      </c>
+      <c r="K14">
+        <v>0.002334390614458716</v>
+      </c>
+      <c r="L14">
+        <v>1.458994134036697</v>
+      </c>
+      <c r="M14">
+        <v>296.8333333334012</v>
+      </c>
+      <c r="O14">
+        <v>6.577632422118096E-06</v>
+      </c>
+      <c r="P14">
+        <v>0.00411102026382381</v>
+      </c>
+      <c r="Q14">
+        <v>296.8333333334012</v>
+      </c>
+      <c r="S14">
+        <v>0.0003757074219265188</v>
+      </c>
+      <c r="T14">
+        <v>0.2348171387040742</v>
+      </c>
+      <c r="U14">
+        <v>296.8333333334012</v>
+      </c>
+      <c r="V14">
+        <v>0.0006972776029560515</v>
+      </c>
+      <c r="W14">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X14">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y14">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z14">
+        <v>-0.01305344934992137</v>
+      </c>
+      <c r="AA14">
+        <v>0.04703391439738597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
-        <v>-6.082494606374883</v>
-      </c>
-      <c r="B15">
-        <v>-0.4394756864566557</v>
+        <v>320.9250000000175</v>
+      </c>
+      <c r="C15">
+        <v>0.04818232285623589</v>
+      </c>
+      <c r="D15">
+        <v>30.11395178514743</v>
+      </c>
+      <c r="E15">
+        <v>320.9250000000175</v>
+      </c>
+      <c r="G15">
+        <v>0.006093116459076287</v>
+      </c>
+      <c r="H15">
+        <v>3.808197786922679</v>
+      </c>
+      <c r="I15">
+        <v>320.9250000000175</v>
+      </c>
+      <c r="K15">
+        <v>0.0004402431422966492</v>
+      </c>
+      <c r="L15">
+        <v>0.2751519639354058</v>
+      </c>
+      <c r="M15">
+        <v>320.9250000000175</v>
+      </c>
+      <c r="O15">
+        <v>8.773240861918325E-06</v>
+      </c>
+      <c r="P15">
+        <v>0.005483275538698953</v>
+      </c>
+      <c r="Q15">
+        <v>320.9250000000175</v>
+      </c>
+      <c r="S15">
+        <v>-3.187293546433225E-05</v>
+      </c>
+      <c r="T15">
+        <v>-0.01992058466520766</v>
+      </c>
+      <c r="U15">
+        <v>320.9250000000175</v>
+      </c>
+      <c r="V15">
+        <v>0.0003747415830441431</v>
+      </c>
+      <c r="W15">
+        <v>0.02629410590302368</v>
+      </c>
+      <c r="X15">
+        <v>0.2610441767068273</v>
+      </c>
+      <c r="Y15">
+        <v>17.7027000602997</v>
+      </c>
+      <c r="Z15">
+        <v>0.1264595830561477</v>
+      </c>
+      <c r="AA15">
+        <v>0.009137026116615956</v>
       </c>
     </row>
   </sheetData>
@@ -512,130 +1502,1045 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
-        <v>1.001702779662884</v>
-      </c>
-      <c r="B2">
-        <v>-0.1431736541467296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10.8666666666395</v>
+      </c>
+      <c r="C2">
+        <v>0.06749870281107145</v>
+      </c>
+      <c r="D2">
+        <v>42.18668925691966</v>
+      </c>
+      <c r="E2">
+        <v>10.8666666666395</v>
+      </c>
+      <c r="G2">
+        <v>0.07095242325934745</v>
+      </c>
+      <c r="H2">
+        <v>44.34526453709215</v>
+      </c>
+      <c r="I2">
+        <v>10.8666666666395</v>
+      </c>
+      <c r="K2">
+        <v>-0.0101412493953795</v>
+      </c>
+      <c r="L2">
+        <v>-6.338280872112186</v>
+      </c>
+      <c r="M2">
+        <v>10.8666666666395</v>
+      </c>
+      <c r="O2">
+        <v>0.05376281952335426</v>
+      </c>
+      <c r="P2">
+        <v>33.60176220209641</v>
+      </c>
+      <c r="Q2">
+        <v>10.8666666666395</v>
+      </c>
+      <c r="S2">
+        <v>-0.01208894131164853</v>
+      </c>
+      <c r="T2">
+        <v>-7.555588319780332</v>
+      </c>
+      <c r="U2">
+        <v>10.8666666666395</v>
+      </c>
+      <c r="V2">
+        <v>0.0255636013598145</v>
+      </c>
+      <c r="W2">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X2">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y2">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z2">
+        <v>1.051167212175069</v>
+      </c>
+      <c r="AA2">
+        <v>-0.1502436191072413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
-        <v>0.9295739664718299</v>
-      </c>
-      <c r="B3">
-        <v>-0.1194389199756687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>34.83333333328483</v>
+      </c>
+      <c r="C3">
+        <v>0.0874529246450047</v>
+      </c>
+      <c r="D3">
+        <v>54.65807790312794</v>
+      </c>
+      <c r="E3">
+        <v>34.83333333328483</v>
+      </c>
+      <c r="G3">
+        <v>0.07083255492967964</v>
+      </c>
+      <c r="H3">
+        <v>44.27034683104978</v>
+      </c>
+      <c r="I3">
+        <v>34.83333333328483</v>
+      </c>
+      <c r="K3">
+        <v>-0.009101119615073197</v>
+      </c>
+      <c r="L3">
+        <v>-5.688199759420748</v>
+      </c>
+      <c r="M3">
+        <v>34.83333333328483</v>
+      </c>
+      <c r="O3">
+        <v>0.04203209102967254</v>
+      </c>
+      <c r="P3">
+        <v>26.27005689354534</v>
+      </c>
+      <c r="Q3">
+        <v>34.83333333328483</v>
+      </c>
+      <c r="S3">
+        <v>0.003050921581076257</v>
+      </c>
+      <c r="T3">
+        <v>1.90682598817266</v>
+      </c>
+      <c r="U3">
+        <v>34.83333333328483</v>
+      </c>
+      <c r="V3">
+        <v>0.02520193351454493</v>
+      </c>
+      <c r="W3">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X3">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y3">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z3">
+        <v>0.8099506702286782</v>
+      </c>
+      <c r="AA3">
+        <v>-0.1040687850293987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
-        <v>2.241224588128452</v>
-      </c>
-      <c r="B4">
-        <v>-0.2986849979271077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>59.71666666661622</v>
+      </c>
+      <c r="C4">
+        <v>0.09390639043506804</v>
+      </c>
+      <c r="D4">
+        <v>58.69149402191753</v>
+      </c>
+      <c r="E4">
+        <v>59.71666666661622</v>
+      </c>
+      <c r="G4">
+        <v>0.05705818199672635</v>
+      </c>
+      <c r="H4">
+        <v>35.66136374795396</v>
+      </c>
+      <c r="I4">
+        <v>59.71666666661622</v>
+      </c>
+      <c r="K4">
+        <v>-0.007604067464585565</v>
+      </c>
+      <c r="L4">
+        <v>-4.752542165365978</v>
+      </c>
+      <c r="M4">
+        <v>59.71666666661622</v>
+      </c>
+      <c r="O4">
+        <v>0.01249341767622621</v>
+      </c>
+      <c r="P4">
+        <v>7.808386047641381</v>
+      </c>
+      <c r="Q4">
+        <v>59.71666666661622</v>
+      </c>
+      <c r="S4">
+        <v>0.003192225919891372</v>
+      </c>
+      <c r="T4">
+        <v>1.995141199932107</v>
+      </c>
+      <c r="U4">
+        <v>59.71666666661622</v>
+      </c>
+      <c r="V4">
+        <v>0.02452143782200438</v>
+      </c>
+      <c r="W4">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X4">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y4">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z4">
+        <v>0.6076070194198281</v>
+      </c>
+      <c r="AA4">
+        <v>-0.08097497336822278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
-        <v>-1.203656979208058</v>
-      </c>
-      <c r="B5">
-        <v>0.1532518188090172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>83.20833333328483</v>
+      </c>
+      <c r="C5">
+        <v>0.07981608946752752</v>
+      </c>
+      <c r="D5">
+        <v>49.8850559172047</v>
+      </c>
+      <c r="E5">
+        <v>83.20833333328483</v>
+      </c>
+      <c r="G5">
+        <v>0.0380302892897217</v>
+      </c>
+      <c r="H5">
+        <v>23.76893080607606</v>
+      </c>
+      <c r="I5">
+        <v>83.20833333328483</v>
+      </c>
+      <c r="K5">
+        <v>-0.004842086328712679</v>
+      </c>
+      <c r="L5">
+        <v>-3.026303955445425</v>
+      </c>
+      <c r="M5">
+        <v>83.20833333328483</v>
+      </c>
+      <c r="O5">
+        <v>-0.01498888079824008</v>
+      </c>
+      <c r="P5">
+        <v>-9.368050498900047</v>
+      </c>
+      <c r="Q5">
+        <v>83.20833333328483</v>
+      </c>
+      <c r="S5">
+        <v>0.0005900772747426073</v>
+      </c>
+      <c r="T5">
+        <v>0.3687982967141296</v>
+      </c>
+      <c r="U5">
+        <v>83.20833333328483</v>
+      </c>
+      <c r="V5">
+        <v>0.023404709089654</v>
+      </c>
+      <c r="W5">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X5">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y5">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z5">
+        <v>0.4764739733984836</v>
+      </c>
+      <c r="AA5">
+        <v>-0.06066554201058221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
-        <v>-1.227957750547728</v>
-      </c>
-      <c r="B6">
-        <v>0.206528860990644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>105.666666666657</v>
+      </c>
+      <c r="C6">
+        <v>0.0705061401155842</v>
+      </c>
+      <c r="D6">
+        <v>44.06633757224012</v>
+      </c>
+      <c r="E6">
+        <v>105.666666666657</v>
+      </c>
+      <c r="G6">
+        <v>0.02948442572096373</v>
+      </c>
+      <c r="H6">
+        <v>18.42776607560233</v>
+      </c>
+      <c r="I6">
+        <v>105.666666666657</v>
+      </c>
+      <c r="K6">
+        <v>-0.004958953073424336</v>
+      </c>
+      <c r="L6">
+        <v>-3.09934567089021</v>
+      </c>
+      <c r="M6">
+        <v>105.666666666657</v>
+      </c>
+      <c r="O6">
+        <v>-0.01399385537487699</v>
+      </c>
+      <c r="P6">
+        <v>-8.74615960929812</v>
+      </c>
+      <c r="Q6">
+        <v>105.666666666657</v>
+      </c>
+      <c r="S6">
+        <v>-0.00164879409015162</v>
+      </c>
+      <c r="T6">
+        <v>-1.030496306344762</v>
+      </c>
+      <c r="U6">
+        <v>105.666666666657</v>
+      </c>
+      <c r="V6">
+        <v>0.0216909719265003</v>
+      </c>
+      <c r="W6">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X6">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y6">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z6">
+        <v>0.4181823834438881</v>
+      </c>
+      <c r="AA6">
+        <v>-0.070333634280573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
-        <v>11.0381157621263</v>
-      </c>
-      <c r="B7">
-        <v>-2.179953517231626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>128.4833333333081</v>
+      </c>
+      <c r="C7">
+        <v>0.06031679805169207</v>
+      </c>
+      <c r="D7">
+        <v>37.69799878230754</v>
+      </c>
+      <c r="E7">
+        <v>128.4833333333081</v>
+      </c>
+      <c r="G7">
+        <v>0.02452959949822745</v>
+      </c>
+      <c r="H7">
+        <v>15.33099968639215</v>
+      </c>
+      <c r="I7">
+        <v>128.4833333333081</v>
+      </c>
+      <c r="K7">
+        <v>-0.004844430684983443</v>
+      </c>
+      <c r="L7">
+        <v>-3.027769178114652</v>
+      </c>
+      <c r="M7">
+        <v>128.4833333333081</v>
+      </c>
+      <c r="O7">
+        <v>-0.003197076370838972</v>
+      </c>
+      <c r="P7">
+        <v>-1.998172731774357</v>
+      </c>
+      <c r="Q7">
+        <v>128.4833333333081</v>
+      </c>
+      <c r="S7">
+        <v>-0.003728340071463165</v>
+      </c>
+      <c r="T7">
+        <v>-2.330212544664478</v>
+      </c>
+      <c r="U7">
+        <v>128.4833333333081</v>
+      </c>
+      <c r="V7">
+        <v>0.01912693130032752</v>
+      </c>
+      <c r="W7">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X7">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y7">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z7">
+        <v>0.4066794042549366</v>
+      </c>
+      <c r="AA7">
+        <v>-0.08031644320429145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
-        <v>0.6536908914229761</v>
-      </c>
-      <c r="B8">
-        <v>-0.1903030152729059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>152.9083333332965</v>
+      </c>
+      <c r="C8">
+        <v>0.05334088367082383</v>
+      </c>
+      <c r="D8">
+        <v>33.33805229426489</v>
+      </c>
+      <c r="E8">
+        <v>152.9083333332965</v>
+      </c>
+      <c r="G8">
+        <v>0.01712895675321221</v>
+      </c>
+      <c r="H8">
+        <v>10.70559797075763</v>
+      </c>
+      <c r="I8">
+        <v>152.9083333332965</v>
+      </c>
+      <c r="K8">
+        <v>-0.004986595593399935</v>
+      </c>
+      <c r="L8">
+        <v>-3.116622245874959</v>
+      </c>
+      <c r="M8">
+        <v>152.9083333332965</v>
+      </c>
+      <c r="O8">
+        <v>0.01012540521172896</v>
+      </c>
+      <c r="P8">
+        <v>6.328378257330602</v>
+      </c>
+      <c r="Q8">
+        <v>152.9083333332965</v>
+      </c>
+      <c r="S8">
+        <v>-0.004160503779549755</v>
+      </c>
+      <c r="T8">
+        <v>-2.600314862218597</v>
+      </c>
+      <c r="U8">
+        <v>152.9083333332965</v>
+      </c>
+      <c r="V8">
+        <v>0.01549585624252519</v>
+      </c>
+      <c r="W8">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X8">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y8">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z8">
+        <v>0.3211224781898642</v>
+      </c>
+      <c r="AA8">
+        <v>-0.09348543275310382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
-        <v>0.04817788547237524</v>
-      </c>
-      <c r="B9">
-        <v>-0.06871970809405212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>176.9249999999302</v>
+      </c>
+      <c r="C9">
+        <v>0.04897107039447122</v>
+      </c>
+      <c r="D9">
+        <v>30.60691899654451</v>
+      </c>
+      <c r="E9">
+        <v>176.9249999999302</v>
+      </c>
+      <c r="G9">
+        <v>0.001734730667921726</v>
+      </c>
+      <c r="H9">
+        <v>1.084206667451078</v>
+      </c>
+      <c r="I9">
+        <v>176.9249999999302</v>
+      </c>
+      <c r="K9">
+        <v>-0.002474375617620974</v>
+      </c>
+      <c r="L9">
+        <v>-1.546484761013109</v>
+      </c>
+      <c r="M9">
+        <v>176.9249999999302</v>
+      </c>
+      <c r="O9">
+        <v>0.01152826563774052</v>
+      </c>
+      <c r="P9">
+        <v>7.205166023587825</v>
+      </c>
+      <c r="Q9">
+        <v>176.9249999999302</v>
+      </c>
+      <c r="S9">
+        <v>-0.002221957591014953</v>
+      </c>
+      <c r="T9">
+        <v>-1.388723494384345</v>
+      </c>
+      <c r="U9">
+        <v>176.9249999999302</v>
+      </c>
+      <c r="V9">
+        <v>0.01147703077580706</v>
+      </c>
+      <c r="W9">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X9">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y9">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z9">
+        <v>0.03542358077836859</v>
+      </c>
+      <c r="AA9">
+        <v>-0.05052729290353287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
-        <v>-0.2730822199441519</v>
-      </c>
-      <c r="B10">
-        <v>-0.02209565838236282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>201.0916666665289</v>
+      </c>
+      <c r="C10">
+        <v>0.03935923296370056</v>
+      </c>
+      <c r="D10">
+        <v>24.59952060231285</v>
+      </c>
+      <c r="E10">
+        <v>201.0916666665289</v>
+      </c>
+      <c r="G10">
+        <v>-0.007397945265892623</v>
+      </c>
+      <c r="H10">
+        <v>-4.623715791182889</v>
+      </c>
+      <c r="I10">
+        <v>201.0916666665289</v>
+      </c>
+      <c r="K10">
+        <v>-0.0005985833547127726</v>
+      </c>
+      <c r="L10">
+        <v>-0.3741145966954829</v>
+      </c>
+      <c r="M10">
+        <v>201.0916666665289</v>
+      </c>
+      <c r="O10">
+        <v>0.005614740676070788</v>
+      </c>
+      <c r="P10">
+        <v>3.509212922544242</v>
+      </c>
+      <c r="Q10">
+        <v>201.0916666665289</v>
+      </c>
+      <c r="S10">
+        <v>0.0007436610984786004</v>
+      </c>
+      <c r="T10">
+        <v>0.4647881865491252</v>
+      </c>
+      <c r="U10">
+        <v>201.0916666665289</v>
+      </c>
+      <c r="V10">
+        <v>0.007711665280701269</v>
+      </c>
+      <c r="W10">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X10">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y10">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z10">
+        <v>-0.1879595893729802</v>
+      </c>
+      <c r="AA10">
+        <v>-0.0152082068079127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
-        <v>-1.151413548972049</v>
-      </c>
-      <c r="B11">
-        <v>0.08432777395967034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>225.6249999999418</v>
+      </c>
+      <c r="C11">
+        <v>0.03400886327843877</v>
+      </c>
+      <c r="D11">
+        <v>21.25553954902423</v>
+      </c>
+      <c r="E11">
+        <v>225.6249999999418</v>
+      </c>
+      <c r="G11">
+        <v>-0.009399619671121762</v>
+      </c>
+      <c r="H11">
+        <v>-5.874762294451101</v>
+      </c>
+      <c r="I11">
+        <v>225.6249999999418</v>
+      </c>
+      <c r="K11">
+        <v>0.000688413822853555</v>
+      </c>
+      <c r="L11">
+        <v>0.4302586392834719</v>
+      </c>
+      <c r="M11">
+        <v>225.6249999999418</v>
+      </c>
+      <c r="O11">
+        <v>-0.0002190890544552114</v>
+      </c>
+      <c r="P11">
+        <v>-0.1369306590345071</v>
+      </c>
+      <c r="Q11">
+        <v>225.6249999999418</v>
+      </c>
+      <c r="S11">
+        <v>0.001800170678250107</v>
+      </c>
+      <c r="T11">
+        <v>1.125106673906317</v>
+      </c>
+      <c r="U11">
+        <v>225.6249999999418</v>
+      </c>
+      <c r="V11">
+        <v>0.004738263693682729</v>
+      </c>
+      <c r="W11">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X11">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y11">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z11">
+        <v>-0.2763873521489033</v>
+      </c>
+      <c r="AA11">
+        <v>0.02024218855000665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
-        <v>3.793396705511565</v>
-      </c>
-      <c r="B12">
-        <v>-0.4090588077361138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>250.0083333333023</v>
+      </c>
+      <c r="C12">
+        <v>0.03816760660471871</v>
+      </c>
+      <c r="D12">
+        <v>23.85475412794919</v>
+      </c>
+      <c r="E12">
+        <v>250.0083333333023</v>
+      </c>
+      <c r="G12">
+        <v>-0.006983455629516813</v>
+      </c>
+      <c r="H12">
+        <v>-4.364659768448008</v>
+      </c>
+      <c r="I12">
+        <v>250.0083333333023</v>
+      </c>
+      <c r="K12">
+        <v>0.0007530570239431265</v>
+      </c>
+      <c r="L12">
+        <v>0.470660639964454</v>
+      </c>
+      <c r="M12">
+        <v>250.0083333333023</v>
+      </c>
+      <c r="O12">
+        <v>-0.000290397792201546</v>
+      </c>
+      <c r="P12">
+        <v>-0.1814986201259662</v>
+      </c>
+      <c r="Q12">
+        <v>250.0083333333023</v>
+      </c>
+      <c r="S12">
+        <v>0.001408430487838981</v>
+      </c>
+      <c r="T12">
+        <v>0.8802690548993634</v>
+      </c>
+      <c r="U12">
+        <v>250.0083333333023</v>
+      </c>
+      <c r="V12">
+        <v>0.00274911097230377</v>
+      </c>
+      <c r="W12">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X12">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y12">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z12">
+        <v>-0.1829681305888706</v>
+      </c>
+      <c r="AA12">
+        <v>0.01973026581787356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
-        <v>1.014730564225536</v>
-      </c>
-      <c r="B13">
-        <v>-0.1266382235004309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>273.3333333332848</v>
+      </c>
+      <c r="C13">
+        <v>0.04382843304398205</v>
+      </c>
+      <c r="D13">
+        <v>27.39277065248878</v>
+      </c>
+      <c r="E13">
+        <v>273.3333333332848</v>
+      </c>
+      <c r="G13">
+        <v>-0.006432638262868108</v>
+      </c>
+      <c r="H13">
+        <v>-4.020398914292568</v>
+      </c>
+      <c r="I13">
+        <v>273.3333333332848</v>
+      </c>
+      <c r="K13">
+        <v>0.000802792298517438</v>
+      </c>
+      <c r="L13">
+        <v>0.5017451865733987</v>
+      </c>
+      <c r="M13">
+        <v>273.3333333332848</v>
+      </c>
+      <c r="O13">
+        <v>-1.159605316914691E-05</v>
+      </c>
+      <c r="P13">
+        <v>-0.007247533230716818</v>
+      </c>
+      <c r="Q13">
+        <v>273.3333333332848</v>
+      </c>
+      <c r="S13">
+        <v>0.001153558193771731</v>
+      </c>
+      <c r="T13">
+        <v>0.7209738711073317</v>
+      </c>
+      <c r="U13">
+        <v>273.3333333332848</v>
+      </c>
+      <c r="V13">
+        <v>0.001574941585471527</v>
+      </c>
+      <c r="W13">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X13">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y13">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z13">
+        <v>-0.1467686115178456</v>
+      </c>
+      <c r="AA13">
+        <v>0.0183167008893937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
-        <v>0.3520053344072496</v>
-      </c>
-      <c r="B14">
-        <v>-0.05917274736258945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>296.7499999999709</v>
+      </c>
+      <c r="C14">
+        <v>0.04263763438188208</v>
+      </c>
+      <c r="D14">
+        <v>26.6485214886763</v>
+      </c>
+      <c r="E14">
+        <v>296.7499999999709</v>
+      </c>
+      <c r="G14">
+        <v>-0.002469703629331315</v>
+      </c>
+      <c r="H14">
+        <v>-1.543564768332072</v>
+      </c>
+      <c r="I14">
+        <v>296.7499999999709</v>
+      </c>
+      <c r="K14">
+        <v>0.0004151617451053106</v>
+      </c>
+      <c r="L14">
+        <v>0.2594760906908191</v>
+      </c>
+      <c r="M14">
+        <v>296.7499999999709</v>
+      </c>
+      <c r="O14">
+        <v>-9.343781468308611E-06</v>
+      </c>
+      <c r="P14">
+        <v>-0.005839863417692882</v>
+      </c>
+      <c r="Q14">
+        <v>296.7499999999709</v>
+      </c>
+      <c r="S14">
+        <v>0.0006634943512649281</v>
+      </c>
+      <c r="T14">
+        <v>0.4146839695405801</v>
+      </c>
+      <c r="U14">
+        <v>296.7499999999709</v>
+      </c>
+      <c r="V14">
+        <v>0.0008811853053694403</v>
+      </c>
+      <c r="W14">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X14">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y14">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z14">
+        <v>-0.05792309224314661</v>
+      </c>
+      <c r="AA14">
+        <v>0.009736978871457381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
-        <v>-0.802855921431273</v>
-      </c>
-      <c r="B15">
-        <v>-0.3531068953388069</v>
+        <v>320.8416666665871</v>
+      </c>
+      <c r="C15">
+        <v>0.03789405687825904</v>
+      </c>
+      <c r="D15">
+        <v>23.6837855489119</v>
+      </c>
+      <c r="E15">
+        <v>320.8416666665871</v>
+      </c>
+      <c r="G15">
+        <v>0.004234852280069977</v>
+      </c>
+      <c r="H15">
+        <v>2.646782675043735</v>
+      </c>
+      <c r="I15">
+        <v>320.8416666665871</v>
+      </c>
+      <c r="K15">
+        <v>0.001862545322164612</v>
+      </c>
+      <c r="L15">
+        <v>1.164090826352883</v>
+      </c>
+      <c r="M15">
+        <v>320.8416666665871</v>
+      </c>
+      <c r="O15">
+        <v>-1.873341971135771E-05</v>
+      </c>
+      <c r="P15">
+        <v>-0.01170838731959857</v>
+      </c>
+      <c r="Q15">
+        <v>320.8416666665871</v>
+      </c>
+      <c r="S15">
+        <v>-0.002130678239922709</v>
+      </c>
+      <c r="T15">
+        <v>-1.331673899951693</v>
+      </c>
+      <c r="U15">
+        <v>320.8416666665871</v>
+      </c>
+      <c r="V15">
+        <v>0.0004786191112518732</v>
+      </c>
+      <c r="W15">
+        <v>0.02599510156114022</v>
+      </c>
+      <c r="X15">
+        <v>0.2545824847250509</v>
+      </c>
+      <c r="Y15">
+        <v>20.26006842350617</v>
+      </c>
+      <c r="Z15">
+        <v>0.1117550515553176</v>
+      </c>
+      <c r="AA15">
+        <v>0.0491513835044991</v>
       </c>
     </row>
   </sheetData>
@@ -645,130 +2550,1045 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
-        <v>1.862211741425355</v>
-      </c>
-      <c r="B2">
-        <v>-0.245769537385971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10.78333333338378</v>
+      </c>
+      <c r="C2">
+        <v>0.0374456137281992</v>
+      </c>
+      <c r="D2">
+        <v>23.4035085801245</v>
+      </c>
+      <c r="E2">
+        <v>10.78333333338378</v>
+      </c>
+      <c r="G2">
+        <v>0.07471391552627475</v>
+      </c>
+      <c r="H2">
+        <v>46.69619720392172</v>
+      </c>
+      <c r="I2">
+        <v>10.78333333338378</v>
+      </c>
+      <c r="K2">
+        <v>-0.009860535215577742</v>
+      </c>
+      <c r="L2">
+        <v>-6.162834509736088</v>
+      </c>
+      <c r="M2">
+        <v>10.78333333338378</v>
+      </c>
+      <c r="O2">
+        <v>0.009716508129851288</v>
+      </c>
+      <c r="P2">
+        <v>6.072817581157055</v>
+      </c>
+      <c r="Q2">
+        <v>10.78333333338378</v>
+      </c>
+      <c r="S2">
+        <v>-0.01107167677843806</v>
+      </c>
+      <c r="T2">
+        <v>-6.91979798652379</v>
+      </c>
+      <c r="U2">
+        <v>10.78333333338378</v>
+      </c>
+      <c r="V2">
+        <v>0.02570464835356579</v>
+      </c>
+      <c r="W2">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X2">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y2">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z2">
+        <v>1.995264814420971</v>
+      </c>
+      <c r="AA2">
+        <v>-0.2633295126940878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
-        <v>0.5812871182074123</v>
-      </c>
-      <c r="B3">
-        <v>-0.07934759909659618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>34.7500000000291</v>
+      </c>
+      <c r="C3">
+        <v>0.1192479786285244</v>
+      </c>
+      <c r="D3">
+        <v>74.52998664282777</v>
+      </c>
+      <c r="E3">
+        <v>34.7500000000291</v>
+      </c>
+      <c r="G3">
+        <v>0.06275508189764969</v>
+      </c>
+      <c r="H3">
+        <v>39.22192618603106</v>
+      </c>
+      <c r="I3">
+        <v>34.7500000000291</v>
+      </c>
+      <c r="K3">
+        <v>-0.008566274606333212</v>
+      </c>
+      <c r="L3">
+        <v>-5.353921628958257</v>
+      </c>
+      <c r="M3">
+        <v>34.7500000000291</v>
+      </c>
+      <c r="O3">
+        <v>0.03696224149786325</v>
+      </c>
+      <c r="P3">
+        <v>23.10140093616453</v>
+      </c>
+      <c r="Q3">
+        <v>34.7500000000291</v>
+      </c>
+      <c r="S3">
+        <v>0.0033176331572336</v>
+      </c>
+      <c r="T3">
+        <v>2.073520723271</v>
+      </c>
+      <c r="U3">
+        <v>34.7500000000291</v>
+      </c>
+      <c r="V3">
+        <v>0.02531407062814458</v>
+      </c>
+      <c r="W3">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X3">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y3">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z3">
+        <v>0.5262569866541831</v>
+      </c>
+      <c r="AA3">
+        <v>-0.07183580556127042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
-        <v>0.9876909793627073</v>
-      </c>
-      <c r="B4">
-        <v>-0.1502023471801553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>59.6333333333605</v>
+      </c>
+      <c r="C4">
+        <v>0.1122154193810621</v>
+      </c>
+      <c r="D4">
+        <v>70.13463711316379</v>
+      </c>
+      <c r="E4">
+        <v>59.6333333333605</v>
+      </c>
+      <c r="G4">
+        <v>0.04757564378614521</v>
+      </c>
+      <c r="H4">
+        <v>29.73477736634076</v>
+      </c>
+      <c r="I4">
+        <v>59.6333333333605</v>
+      </c>
+      <c r="K4">
+        <v>-0.007235029492622089</v>
+      </c>
+      <c r="L4">
+        <v>-4.521893432888806</v>
+      </c>
+      <c r="M4">
+        <v>59.6333333333605</v>
+      </c>
+      <c r="O4">
+        <v>0.01536447112024369</v>
+      </c>
+      <c r="P4">
+        <v>9.602794450152309</v>
+      </c>
+      <c r="Q4">
+        <v>59.6333333333605</v>
+      </c>
+      <c r="S4">
+        <v>0.003436644690073379</v>
+      </c>
+      <c r="T4">
+        <v>2.147902931295862</v>
+      </c>
+      <c r="U4">
+        <v>59.6333333333605</v>
+      </c>
+      <c r="V4">
+        <v>0.02457841032464412</v>
+      </c>
+      <c r="W4">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X4">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y4">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z4">
+        <v>0.4239670808927554</v>
+      </c>
+      <c r="AA4">
+        <v>-0.06447446823732232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
-        <v>-0.9648621251479267</v>
-      </c>
-      <c r="B5">
-        <v>0.1410290060992138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>83.1250000000291</v>
+      </c>
+      <c r="C5">
+        <v>0.0711680486069006</v>
+      </c>
+      <c r="D5">
+        <v>44.48003037931287</v>
+      </c>
+      <c r="E5">
+        <v>83.1250000000291</v>
+      </c>
+      <c r="G5">
+        <v>0.03252724277307888</v>
+      </c>
+      <c r="H5">
+        <v>20.3295267331743</v>
+      </c>
+      <c r="I5">
+        <v>83.1250000000291</v>
+      </c>
+      <c r="K5">
+        <v>-0.004754342200686814</v>
+      </c>
+      <c r="L5">
+        <v>-2.971463875429259</v>
+      </c>
+      <c r="M5">
+        <v>83.1250000000291</v>
+      </c>
+      <c r="O5">
+        <v>-0.01379267807580474</v>
+      </c>
+      <c r="P5">
+        <v>-8.620423797377962</v>
+      </c>
+      <c r="Q5">
+        <v>83.1250000000291</v>
+      </c>
+      <c r="S5">
+        <v>0.0002778886578492981</v>
+      </c>
+      <c r="T5">
+        <v>0.1736804111558113</v>
+      </c>
+      <c r="U5">
+        <v>83.1250000000291</v>
+      </c>
+      <c r="V5">
+        <v>0.02337313681349034</v>
+      </c>
+      <c r="W5">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X5">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y5">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z5">
+        <v>0.4570484003677596</v>
+      </c>
+      <c r="AA5">
+        <v>-0.06680444797563023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
-        <v>-0.7523530253531202</v>
-      </c>
-      <c r="B6">
-        <v>0.1585216787260997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>105.5833333334012</v>
+      </c>
+      <c r="C6">
+        <v>0.05809308383793023</v>
+      </c>
+      <c r="D6">
+        <v>36.30817739870639</v>
+      </c>
+      <c r="E6">
+        <v>105.5833333334012</v>
+      </c>
+      <c r="G6">
+        <v>0.02437964312913938</v>
+      </c>
+      <c r="H6">
+        <v>15.23727695571211</v>
+      </c>
+      <c r="I6">
+        <v>105.5833333334012</v>
+      </c>
+      <c r="K6">
+        <v>-0.005136819850974191</v>
+      </c>
+      <c r="L6">
+        <v>-3.210512406858869</v>
+      </c>
+      <c r="M6">
+        <v>105.5833333334012</v>
+      </c>
+      <c r="O6">
+        <v>-0.01380350470709346</v>
+      </c>
+      <c r="P6">
+        <v>-8.627190441933415</v>
+      </c>
+      <c r="Q6">
+        <v>105.5833333334012</v>
+      </c>
+      <c r="S6">
+        <v>-0.001678085596392096</v>
+      </c>
+      <c r="T6">
+        <v>-1.04880349774506</v>
+      </c>
+      <c r="U6">
+        <v>105.5833333334012</v>
+      </c>
+      <c r="V6">
+        <v>0.0215339271427265</v>
+      </c>
+      <c r="W6">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X6">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y6">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z6">
+        <v>0.4196651566502205</v>
+      </c>
+      <c r="AA6">
+        <v>-0.08842394845667068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
-        <v>-11.12606636888891</v>
-      </c>
-      <c r="B7">
-        <v>3.955545897221173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>128.4000000000524</v>
+      </c>
+      <c r="C7">
+        <v>0.05611653134022356</v>
+      </c>
+      <c r="D7">
+        <v>35.07283208763972</v>
+      </c>
+      <c r="E7">
+        <v>128.4000000000524</v>
+      </c>
+      <c r="G7">
+        <v>0.01525393670719586</v>
+      </c>
+      <c r="H7">
+        <v>9.533710441997412</v>
+      </c>
+      <c r="I7">
+        <v>128.4000000000524</v>
+      </c>
+      <c r="K7">
+        <v>-0.005423088875987493</v>
+      </c>
+      <c r="L7">
+        <v>-3.389430547492183</v>
+      </c>
+      <c r="M7">
+        <v>128.4000000000524</v>
+      </c>
+      <c r="O7">
+        <v>-0.002707741381536061</v>
+      </c>
+      <c r="P7">
+        <v>-1.692338363460038</v>
+      </c>
+      <c r="Q7">
+        <v>128.4000000000524</v>
+      </c>
+      <c r="S7">
+        <v>-0.003212663822857966</v>
+      </c>
+      <c r="T7">
+        <v>-2.007914889286229</v>
+      </c>
+      <c r="U7">
+        <v>128.4000000000524</v>
+      </c>
+      <c r="V7">
+        <v>0.01881304525936661</v>
+      </c>
+      <c r="W7">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X7">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y7">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z7">
+        <v>0.2718260794615801</v>
+      </c>
+      <c r="AA7">
+        <v>-0.09663977345834804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
-        <v>0.5205310882093298</v>
-      </c>
-      <c r="B8">
-        <v>-0.2236348791501371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>152.8250000000407</v>
+      </c>
+      <c r="C8">
+        <v>0.05072273473365022</v>
+      </c>
+      <c r="D8">
+        <v>31.70170920853139</v>
+      </c>
+      <c r="E8">
+        <v>152.8250000000407</v>
+      </c>
+      <c r="G8">
+        <v>0.01116325043939702</v>
+      </c>
+      <c r="H8">
+        <v>6.977031524623138</v>
+      </c>
+      <c r="I8">
+        <v>152.8250000000407</v>
+      </c>
+      <c r="K8">
+        <v>-0.004796048150602126</v>
+      </c>
+      <c r="L8">
+        <v>-2.997530094126329</v>
+      </c>
+      <c r="M8">
+        <v>152.8250000000407</v>
+      </c>
+      <c r="O8">
+        <v>0.00971562876683877</v>
+      </c>
+      <c r="P8">
+        <v>6.072267979274231</v>
+      </c>
+      <c r="Q8">
+        <v>152.8250000000407</v>
+      </c>
+      <c r="S8">
+        <v>-0.003779441567200351</v>
+      </c>
+      <c r="T8">
+        <v>-2.362150979500219</v>
+      </c>
+      <c r="U8">
+        <v>152.8250000000407</v>
+      </c>
+      <c r="V8">
+        <v>0.01503237533315286</v>
+      </c>
+      <c r="W8">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X8">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y8">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z8">
+        <v>0.2200837651600665</v>
+      </c>
+      <c r="AA8">
+        <v>-0.09455421076538201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
-        <v>0.01849193504602979</v>
-      </c>
-      <c r="B9">
-        <v>-0.07626723561624615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>176.8416666666744</v>
+      </c>
+      <c r="C9">
+        <v>0.04672753090296287</v>
+      </c>
+      <c r="D9">
+        <v>29.20470681435179</v>
+      </c>
+      <c r="E9">
+        <v>176.8416666666744</v>
+      </c>
+      <c r="G9">
+        <v>0.0006562285989078587</v>
+      </c>
+      <c r="H9">
+        <v>0.4101428743174116</v>
+      </c>
+      <c r="I9">
+        <v>176.8416666666744</v>
+      </c>
+      <c r="K9">
+        <v>-0.002706517249084227</v>
+      </c>
+      <c r="L9">
+        <v>-1.691573280677642</v>
+      </c>
+      <c r="M9">
+        <v>176.8416666666744</v>
+      </c>
+      <c r="O9">
+        <v>0.01121721025724465</v>
+      </c>
+      <c r="P9">
+        <v>7.010756410777906</v>
+      </c>
+      <c r="Q9">
+        <v>176.8416666666744</v>
+      </c>
+      <c r="S9">
+        <v>-0.001751826736922543</v>
+      </c>
+      <c r="T9">
+        <v>-1.094891710576589</v>
+      </c>
+      <c r="U9">
+        <v>176.8416666666744</v>
+      </c>
+      <c r="V9">
+        <v>0.01095478441502734</v>
+      </c>
+      <c r="W9">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X9">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y9">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z9">
+        <v>0.01404372510652492</v>
+      </c>
+      <c r="AA9">
+        <v>-0.057921255345264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
-        <v>-0.1885652332696945</v>
-      </c>
-      <c r="B10">
-        <v>-0.02716908098137708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>201.0083333332732</v>
+      </c>
+      <c r="C10">
+        <v>0.03804837436869613</v>
+      </c>
+      <c r="D10">
+        <v>23.78023398043508</v>
+      </c>
+      <c r="E10">
+        <v>201.0083333332732</v>
+      </c>
+      <c r="G10">
+        <v>-0.005731417133831652</v>
+      </c>
+      <c r="H10">
+        <v>-3.582135708644782</v>
+      </c>
+      <c r="I10">
+        <v>201.0083333332732</v>
+      </c>
+      <c r="K10">
+        <v>-0.000825800883582873</v>
+      </c>
+      <c r="L10">
+        <v>-0.5161255522392956</v>
+      </c>
+      <c r="M10">
+        <v>201.0083333332732</v>
+      </c>
+      <c r="O10">
+        <v>0.00575891182925448</v>
+      </c>
+      <c r="P10">
+        <v>3.599319893284049</v>
+      </c>
+      <c r="Q10">
+        <v>201.0083333332732</v>
+      </c>
+      <c r="S10">
+        <v>0.0005495610204791533</v>
+      </c>
+      <c r="T10">
+        <v>0.3434756377994708</v>
+      </c>
+      <c r="U10">
+        <v>201.0083333332732</v>
+      </c>
+      <c r="V10">
+        <v>0.007241347883850516</v>
+      </c>
+      <c r="W10">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X10">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y10">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z10">
+        <v>-0.1506350068545139</v>
+      </c>
+      <c r="AA10">
+        <v>-0.02170397283155128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
-        <v>-0.5860768758916597</v>
-      </c>
-      <c r="B11">
-        <v>0.08342481099315711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>225.5416666666861</v>
+      </c>
+      <c r="C11">
+        <v>0.0347781004237791</v>
+      </c>
+      <c r="D11">
+        <v>21.73631276486194</v>
+      </c>
+      <c r="E11">
+        <v>225.5416666666861</v>
+      </c>
+      <c r="G11">
+        <v>-0.006546093161666599</v>
+      </c>
+      <c r="H11">
+        <v>-4.091308226041624</v>
+      </c>
+      <c r="I11">
+        <v>225.5416666666861</v>
+      </c>
+      <c r="K11">
+        <v>0.0009318002590100241</v>
+      </c>
+      <c r="L11">
+        <v>0.582375161881265</v>
+      </c>
+      <c r="M11">
+        <v>225.5416666666861</v>
+      </c>
+      <c r="O11">
+        <v>-0.0001719778198273767</v>
+      </c>
+      <c r="P11">
+        <v>-0.1074861373921104</v>
+      </c>
+      <c r="Q11">
+        <v>225.5416666666861</v>
+      </c>
+      <c r="S11">
+        <v>0.001239443379435863</v>
+      </c>
+      <c r="T11">
+        <v>0.7746521121474143</v>
+      </c>
+      <c r="U11">
+        <v>225.5416666666861</v>
+      </c>
+      <c r="V11">
+        <v>0.004385742265701595</v>
+      </c>
+      <c r="W11">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X11">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y11">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z11">
+        <v>-0.18822457471515</v>
+      </c>
+      <c r="AA11">
+        <v>0.02679273012774778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
-        <v>1.961097733717975</v>
-      </c>
-      <c r="B12">
-        <v>-0.9041143887131349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>249.9250000000466</v>
+      </c>
+      <c r="C12">
+        <v>0.04162849400323512</v>
+      </c>
+      <c r="D12">
+        <v>26.01780875202195</v>
+      </c>
+      <c r="E12">
+        <v>249.9250000000466</v>
+      </c>
+      <c r="G12">
+        <v>-0.003101282802348448</v>
+      </c>
+      <c r="H12">
+        <v>-1.93830175146778</v>
+      </c>
+      <c r="I12">
+        <v>249.9250000000466</v>
+      </c>
+      <c r="K12">
+        <v>0.001429767806500895</v>
+      </c>
+      <c r="L12">
+        <v>0.8936048790630594</v>
+      </c>
+      <c r="M12">
+        <v>249.9250000000466</v>
+      </c>
+      <c r="O12">
+        <v>-0.0003954479714065127</v>
+      </c>
+      <c r="P12">
+        <v>-0.2471549821290704</v>
+      </c>
+      <c r="Q12">
+        <v>249.9250000000466</v>
+      </c>
+      <c r="S12">
+        <v>0.0007834250268576351</v>
+      </c>
+      <c r="T12">
+        <v>0.4896406417860219</v>
+      </c>
+      <c r="U12">
+        <v>249.9250000000466</v>
+      </c>
+      <c r="V12">
+        <v>0.002515979170425439</v>
+      </c>
+      <c r="W12">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X12">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y12">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z12">
+        <v>-0.07449903909825407</v>
+      </c>
+      <c r="AA12">
+        <v>0.03434589313727713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
-        <v>0.6658152221608428</v>
-      </c>
-      <c r="B13">
-        <v>-0.1313598008498817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>273.2500000000291</v>
+      </c>
+      <c r="C13">
+        <v>0.04754900571554745</v>
+      </c>
+      <c r="D13">
+        <v>29.71812857221715</v>
+      </c>
+      <c r="E13">
+        <v>273.2500000000291</v>
+      </c>
+      <c r="G13">
+        <v>-0.005300431321871955</v>
+      </c>
+      <c r="H13">
+        <v>-3.312769576169972</v>
+      </c>
+      <c r="I13">
+        <v>273.2500000000291</v>
+      </c>
+      <c r="K13">
+        <v>0.001045730977131936</v>
+      </c>
+      <c r="L13">
+        <v>0.65358186070746</v>
+      </c>
+      <c r="M13">
+        <v>273.2500000000291</v>
+      </c>
+      <c r="O13">
+        <v>-5.665926413705746E-05</v>
+      </c>
+      <c r="P13">
+        <v>-0.03541204008566091</v>
+      </c>
+      <c r="Q13">
+        <v>273.2500000000291</v>
+      </c>
+      <c r="S13">
+        <v>0.001359755586915739</v>
+      </c>
+      <c r="T13">
+        <v>0.8498472418223367</v>
+      </c>
+      <c r="U13">
+        <v>273.2500000000291</v>
+      </c>
+      <c r="V13">
+        <v>0.00142935540499693</v>
+      </c>
+      <c r="W13">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X13">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y13">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z13">
+        <v>-0.1114730211937709</v>
+      </c>
+      <c r="AA13">
+        <v>0.02199269914049971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
-        <v>0.5333634049695178</v>
-      </c>
-      <c r="B14">
-        <v>-0.01627897107109926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>296.6666666667152</v>
+      </c>
+      <c r="C14">
+        <v>0.04450400436057064</v>
+      </c>
+      <c r="D14">
+        <v>27.81500272535665</v>
+      </c>
+      <c r="E14">
+        <v>296.6666666667152</v>
+      </c>
+      <c r="G14">
+        <v>-0.004598669882946746</v>
+      </c>
+      <c r="H14">
+        <v>-2.874168676841716</v>
+      </c>
+      <c r="I14">
+        <v>296.6666666667152</v>
+      </c>
+      <c r="K14">
+        <v>0.0001403576122630759</v>
+      </c>
+      <c r="L14">
+        <v>0.08772350766442241</v>
+      </c>
+      <c r="M14">
+        <v>296.6666666667152</v>
+      </c>
+      <c r="O14">
+        <v>1.882568867213196E-05</v>
+      </c>
+      <c r="P14">
+        <v>0.01176605542008247</v>
+      </c>
+      <c r="Q14">
+        <v>296.6666666667152</v>
+      </c>
+      <c r="S14">
+        <v>0.001073303961509032</v>
+      </c>
+      <c r="T14">
+        <v>0.6708149759431448</v>
+      </c>
+      <c r="U14">
+        <v>296.6666666667152</v>
+      </c>
+      <c r="V14">
+        <v>0.0007943836915049124</v>
+      </c>
+      <c r="W14">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X14">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y14">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z14">
+        <v>-0.1033315978869768</v>
+      </c>
+      <c r="AA14">
+        <v>0.003153819847892811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
-        <v>-0.5724053634389231</v>
-      </c>
-      <c r="B15">
-        <v>-0.1765247403061654</v>
+        <v>320.7583333333314</v>
+      </c>
+      <c r="C15">
+        <v>0.0378307562856961</v>
+      </c>
+      <c r="D15">
+        <v>23.64422267856006</v>
+      </c>
+      <c r="E15">
+        <v>320.7583333333314</v>
+      </c>
+      <c r="G15">
+        <v>0.003130193459799686</v>
+      </c>
+      <c r="H15">
+        <v>1.956370912374803</v>
+      </c>
+      <c r="I15">
+        <v>320.7583333333314</v>
+      </c>
+      <c r="K15">
+        <v>0.0009653239170917652</v>
+      </c>
+      <c r="L15">
+        <v>0.6033274481823532</v>
+      </c>
+      <c r="M15">
+        <v>320.7583333333314</v>
+      </c>
+      <c r="O15">
+        <v>-4.270936041241648E-05</v>
+      </c>
+      <c r="P15">
+        <v>-0.0266933502577603</v>
+      </c>
+      <c r="Q15">
+        <v>320.7583333333314</v>
+      </c>
+      <c r="S15">
+        <v>-0.002596331194490393</v>
+      </c>
+      <c r="T15">
+        <v>-1.622706996556496</v>
+      </c>
+      <c r="U15">
+        <v>320.7583333333314</v>
+      </c>
+      <c r="V15">
+        <v>0.0004289950280691797</v>
+      </c>
+      <c r="W15">
+        <v>0.02616751965598943</v>
+      </c>
+      <c r="X15">
+        <v>0.2620967741935484</v>
+      </c>
+      <c r="Y15">
+        <v>19.56218532619257</v>
+      </c>
+      <c r="Z15">
+        <v>0.08274202704700406</v>
+      </c>
+      <c r="AA15">
+        <v>0.02551690771925584</v>
       </c>
     </row>
   </sheetData>

--- a/output_files/cl_3_rollreg.xlsx
+++ b/output_files/cl_3_rollreg.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/output_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E4D27-7DD2-A84F-AAED-932B68349D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample CL3_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sample CL3_2" sheetId="2" r:id="rId2"/>
     <sheet name="Sample CL3_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -102,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +172,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,14 +469,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,9 +588,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.95000000006985</v>
+        <v>10.950000000069849</v>
       </c>
       <c r="C2">
         <v>0.1780652683204817</v>
@@ -554,309 +599,309 @@
         <v>111.290792700301</v>
       </c>
       <c r="E2">
-        <v>10.95000000006985</v>
+        <v>10.950000000069849</v>
       </c>
       <c r="G2">
         <v>0.1072022773306603</v>
       </c>
       <c r="H2">
-        <v>67.00142333166266</v>
+        <v>67.001423331662664</v>
       </c>
       <c r="I2">
-        <v>10.95000000006985</v>
+        <v>10.950000000069849</v>
       </c>
       <c r="K2">
-        <v>-0.01696678649905218</v>
+        <v>-1.6966786499052179E-2</v>
       </c>
       <c r="L2">
         <v>-10.60424156190761</v>
       </c>
       <c r="M2">
-        <v>10.95000000006985</v>
+        <v>10.950000000069849</v>
       </c>
       <c r="O2">
-        <v>0.08212662829559864</v>
+        <v>8.2126628295598636E-2</v>
       </c>
       <c r="P2">
-        <v>51.32914268474914</v>
+        <v>51.329142684749137</v>
       </c>
       <c r="Q2">
-        <v>10.95000000006985</v>
+        <v>10.950000000069849</v>
       </c>
       <c r="S2">
-        <v>-0.009014801622085514</v>
+        <v>-9.0148016220855144E-3</v>
       </c>
       <c r="T2">
-        <v>-5.634251013803446</v>
+        <v>-5.6342510138034463</v>
       </c>
       <c r="U2">
-        <v>10.95000000006985</v>
+        <v>10.950000000069849</v>
       </c>
       <c r="V2">
-        <v>0.02577953683870721</v>
+        <v>2.577953683870721E-2</v>
       </c>
       <c r="W2">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X2">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y2">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z2">
-        <v>0.6020392316918184</v>
+        <v>0.60203923169181839</v>
       </c>
       <c r="AA2">
-        <v>-0.09528408689175351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>-9.5284086891753508E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>34.91666666671517</v>
+        <v>34.916666666715173</v>
       </c>
       <c r="C3">
-        <v>0.0940822711694253</v>
+        <v>9.4082271169425302E-2</v>
       </c>
       <c r="D3">
-        <v>58.80141948089081</v>
+        <v>58.801419480890807</v>
       </c>
       <c r="E3">
-        <v>34.91666666671517</v>
+        <v>34.916666666715173</v>
       </c>
       <c r="G3">
-        <v>0.05825151636494567</v>
+        <v>5.8251516364945667E-2</v>
       </c>
       <c r="H3">
-        <v>36.40719772809104</v>
+        <v>36.407197728091042</v>
       </c>
       <c r="I3">
-        <v>34.91666666671517</v>
+        <v>34.916666666715173</v>
       </c>
       <c r="K3">
-        <v>-0.007633483609652983</v>
+        <v>-7.6334836096529834E-3</v>
       </c>
       <c r="L3">
-        <v>-4.770927256033114</v>
+        <v>-4.7709272560331142</v>
       </c>
       <c r="M3">
-        <v>34.91666666671517</v>
+        <v>34.916666666715173</v>
       </c>
       <c r="O3">
-        <v>0.06057668102972062</v>
+        <v>6.0576681029720622E-2</v>
       </c>
       <c r="P3">
         <v>37.86042564357539</v>
       </c>
       <c r="Q3">
-        <v>34.91666666671517</v>
+        <v>34.916666666715173</v>
       </c>
       <c r="S3">
-        <v>0.008146313520098781</v>
+        <v>8.1463135200987805E-3</v>
       </c>
       <c r="T3">
-        <v>5.091445950061738</v>
+        <v>5.0914459500617379</v>
       </c>
       <c r="U3">
-        <v>34.91666666671517</v>
+        <v>34.916666666715173</v>
       </c>
       <c r="V3">
-        <v>0.0253440921387017</v>
+        <v>2.5344092138701702E-2</v>
       </c>
       <c r="W3">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X3">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y3">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z3">
-        <v>0.6191550824707998</v>
+        <v>0.61915508247079976</v>
       </c>
       <c r="AA3">
-        <v>-0.08113625994324103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>-8.1136259943241029E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>59.80000000004657</v>
+        <v>59.800000000046573</v>
       </c>
       <c r="C4">
-        <v>0.07713464326463217</v>
+        <v>7.7134643264632166E-2</v>
       </c>
       <c r="D4">
-        <v>48.2091520403951</v>
+        <v>48.209152040395097</v>
       </c>
       <c r="E4">
-        <v>59.80000000004657</v>
+        <v>59.800000000046573</v>
       </c>
       <c r="G4">
-        <v>0.04004774144015028</v>
+        <v>4.0047741440150282E-2</v>
       </c>
       <c r="H4">
-        <v>25.02983840009392</v>
+        <v>25.029838400093919</v>
       </c>
       <c r="I4">
-        <v>59.80000000004657</v>
+        <v>59.800000000046573</v>
       </c>
       <c r="K4">
-        <v>-0.005817222628396448</v>
+        <v>-5.8172226283964481E-3</v>
       </c>
       <c r="L4">
-        <v>-3.63576414274778</v>
+        <v>-3.6357641427477798</v>
       </c>
       <c r="M4">
-        <v>59.80000000004657</v>
+        <v>59.800000000046573</v>
       </c>
       <c r="O4">
-        <v>0.01683501676563343</v>
+        <v>1.6835016765633429E-2</v>
       </c>
       <c r="P4">
         <v>10.52188547852089</v>
       </c>
       <c r="Q4">
-        <v>59.80000000004657</v>
+        <v>59.800000000046573</v>
       </c>
       <c r="S4">
-        <v>0.005662144164099187</v>
+        <v>5.6621441640991874E-3</v>
       </c>
       <c r="T4">
-        <v>3.538840102561991</v>
+        <v>3.5388401025619909</v>
       </c>
       <c r="U4">
-        <v>59.80000000004657</v>
+        <v>59.800000000046573</v>
       </c>
       <c r="V4">
-        <v>0.02452552915432918</v>
+        <v>2.4525529154329179E-2</v>
       </c>
       <c r="W4">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X4">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y4">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z4">
-        <v>0.5191926707012204</v>
+        <v>0.51919267070122044</v>
       </c>
       <c r="AA4">
-        <v>-0.07541647153846066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>-7.5416471538460664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83.29166666671517</v>
+        <v>83.291666666715173</v>
       </c>
       <c r="C5">
-        <v>0.07364448335966364</v>
+        <v>7.3644483359663643E-2</v>
       </c>
       <c r="D5">
-        <v>46.02780209978977</v>
+        <v>46.027802099789767</v>
       </c>
       <c r="E5">
-        <v>83.29166666671517</v>
+        <v>83.291666666715173</v>
       </c>
       <c r="G5">
-        <v>0.0306363616859518</v>
+        <v>3.06363616859518E-2</v>
       </c>
       <c r="H5">
-        <v>19.14772605371988</v>
+        <v>19.147726053719879</v>
       </c>
       <c r="I5">
-        <v>83.29166666671517</v>
+        <v>83.291666666715173</v>
       </c>
       <c r="K5">
-        <v>-0.004758684035028066</v>
+        <v>-4.7586840350280664E-3</v>
       </c>
       <c r="L5">
-        <v>-2.974177521892541</v>
+        <v>-2.9741775218925408</v>
       </c>
       <c r="M5">
-        <v>83.29166666671517</v>
+        <v>83.291666666715173</v>
       </c>
       <c r="O5">
-        <v>-0.02249827464798157</v>
+        <v>-2.249827464798157E-2</v>
       </c>
       <c r="P5">
-        <v>-14.06142165498848</v>
+        <v>-14.061421654988481</v>
       </c>
       <c r="Q5">
-        <v>83.29166666671517</v>
+        <v>83.291666666715173</v>
       </c>
       <c r="S5">
-        <v>2.3471025846788E-05</v>
+        <v>2.3471025846788E-5</v>
       </c>
       <c r="T5">
-        <v>0.0146693911542425</v>
+        <v>1.4669391154242499E-2</v>
       </c>
       <c r="U5">
-        <v>83.29166666671517</v>
+        <v>83.291666666715173</v>
       </c>
       <c r="V5">
-        <v>0.02319233077333779</v>
+        <v>2.319233077333779E-2</v>
       </c>
       <c r="W5">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X5">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y5">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z5">
         <v>0.4160034844202854</v>
       </c>
       <c r="AA5">
-        <v>-0.0646169790042207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>-6.4616979004220698E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105.7500000000873</v>
       </c>
       <c r="C6">
-        <v>0.06567039505379062</v>
+        <v>6.5670395053790617E-2</v>
       </c>
       <c r="D6">
-        <v>41.04399690861914</v>
+        <v>41.043996908619143</v>
       </c>
       <c r="E6">
         <v>105.7500000000873</v>
       </c>
       <c r="G6">
-        <v>0.02931160240305927</v>
+        <v>2.9311602403059269E-2</v>
       </c>
       <c r="H6">
-        <v>18.31975150191204</v>
+        <v>18.319751501912041</v>
       </c>
       <c r="I6">
         <v>105.7500000000873</v>
       </c>
       <c r="K6">
-        <v>-0.005318712025526823</v>
+        <v>-5.3187120255268226E-3</v>
       </c>
       <c r="L6">
-        <v>-3.324195015954264</v>
+        <v>-3.3241950159542641</v>
       </c>
       <c r="M6">
         <v>105.7500000000873</v>
       </c>
       <c r="O6">
-        <v>-0.01407193152053344</v>
+        <v>-1.407193152053344E-2</v>
       </c>
       <c r="P6">
-        <v>-8.794957200333402</v>
+        <v>-8.7949572003334016</v>
       </c>
       <c r="Q6">
         <v>105.7500000000873</v>
       </c>
       <c r="S6">
-        <v>-0.002068582724805159</v>
+        <v>-2.0685827248051588E-3</v>
       </c>
       <c r="T6">
         <v>-1.292864203003224</v>
@@ -865,175 +910,175 @@
         <v>105.7500000000873</v>
       </c>
       <c r="V6">
-        <v>0.02118111435281489</v>
+        <v>2.1181114352814889E-2</v>
       </c>
       <c r="W6">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X6">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y6">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z6">
-        <v>0.4463442374459624</v>
+        <v>0.44634423744596241</v>
       </c>
       <c r="AA6">
-        <v>-0.08099101613703201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>-8.099101613703201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>128.5666666667385</v>
+        <v>128.56666666673851</v>
       </c>
       <c r="C7">
-        <v>0.05774951074432767</v>
+        <v>5.7749510744327673E-2</v>
       </c>
       <c r="D7">
-        <v>36.09344421520479</v>
+        <v>36.093444215204791</v>
       </c>
       <c r="E7">
-        <v>128.5666666667385</v>
+        <v>128.56666666673851</v>
       </c>
       <c r="G7">
-        <v>0.02011595154104221</v>
+        <v>2.0115951541042211E-2</v>
       </c>
       <c r="H7">
         <v>12.57246971315138</v>
       </c>
       <c r="I7">
-        <v>128.5666666667385</v>
+        <v>128.56666666673851</v>
       </c>
       <c r="K7">
-        <v>-0.004573851987067624</v>
+        <v>-4.5738519870676241E-3</v>
       </c>
       <c r="L7">
-        <v>-2.858657491917265</v>
+        <v>-2.8586574919172651</v>
       </c>
       <c r="M7">
-        <v>128.5666666667385</v>
+        <v>128.56666666673851</v>
       </c>
       <c r="O7">
-        <v>-0.0003041522415433406</v>
+        <v>-3.0415224154334058E-4</v>
       </c>
       <c r="P7">
         <v>-0.1900951509645879</v>
       </c>
       <c r="Q7">
-        <v>128.5666666667385</v>
+        <v>128.56666666673851</v>
       </c>
       <c r="S7">
-        <v>-0.002955099293826609</v>
+        <v>-2.955099293826609E-3</v>
       </c>
       <c r="T7">
         <v>-1.84693705864163</v>
       </c>
       <c r="U7">
-        <v>128.5666666667385</v>
+        <v>128.56666666673851</v>
       </c>
       <c r="V7">
-        <v>0.0182620322933073</v>
+        <v>1.82620322933073E-2</v>
       </c>
       <c r="W7">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X7">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y7">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z7">
-        <v>0.3483311162600293</v>
+        <v>0.34833111626002933</v>
       </c>
       <c r="AA7">
-        <v>-0.07920157120148211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>-7.9201571201482107E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>152.9916666667268</v>
+        <v>152.99166666672679</v>
       </c>
       <c r="C8">
-        <v>0.04839552876278937</v>
+        <v>4.8395528762789367E-2</v>
       </c>
       <c r="D8">
         <v>30.24720547674336</v>
       </c>
       <c r="E8">
-        <v>152.9916666667268</v>
+        <v>152.99166666672679</v>
       </c>
       <c r="G8">
-        <v>0.009941119120016082</v>
+        <v>9.9411191200160821E-3</v>
       </c>
       <c r="H8">
-        <v>6.213199450010051</v>
+        <v>6.2131994500100509</v>
       </c>
       <c r="I8">
-        <v>152.9916666667268</v>
+        <v>152.99166666672679</v>
       </c>
       <c r="K8">
-        <v>-0.004972358288128691</v>
+        <v>-4.9723582881286907E-3</v>
       </c>
       <c r="L8">
-        <v>-3.107723930080431</v>
+        <v>-3.1077239300804309</v>
       </c>
       <c r="M8">
-        <v>152.9916666667268</v>
+        <v>152.99166666672679</v>
       </c>
       <c r="O8">
-        <v>0.01101309183372396</v>
+        <v>1.1013091833723961E-2</v>
       </c>
       <c r="P8">
-        <v>6.883182396077472</v>
+        <v>6.8831823960774718</v>
       </c>
       <c r="Q8">
-        <v>152.9916666667268</v>
+        <v>152.99166666672679</v>
       </c>
       <c r="S8">
-        <v>-0.003652331429717254</v>
+        <v>-3.6523314297172539E-3</v>
       </c>
       <c r="T8">
-        <v>-2.282707143573284</v>
+        <v>-2.2827071435732842</v>
       </c>
       <c r="U8">
-        <v>152.9916666667268</v>
+        <v>152.99166666672679</v>
       </c>
       <c r="V8">
-        <v>0.01432154692852939</v>
+        <v>1.432154692852939E-2</v>
       </c>
       <c r="W8">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X8">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y8">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z8">
-        <v>0.2054139994779779</v>
+        <v>0.20541399947797789</v>
       </c>
       <c r="AA8">
-        <v>-0.1027441669766787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>-0.10274416697667869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>177.0083333333605</v>
       </c>
       <c r="C9">
-        <v>0.04328716459924691</v>
+        <v>4.3287164599246912E-2</v>
       </c>
       <c r="D9">
-        <v>27.05447787452932</v>
+        <v>27.054477874529319</v>
       </c>
       <c r="E9">
         <v>177.0083333333605</v>
       </c>
       <c r="G9">
-        <v>-0.001998180717629748</v>
+        <v>-1.9981807176297482E-3</v>
       </c>
       <c r="H9">
         <v>-1.248862948518592</v>
@@ -1042,457 +1087,457 @@
         <v>177.0083333333605</v>
       </c>
       <c r="K9">
-        <v>-0.004962022935795751</v>
+        <v>-4.9620229357957507E-3</v>
       </c>
       <c r="L9">
-        <v>-3.101264334872344</v>
+        <v>-3.1012643348723441</v>
       </c>
       <c r="M9">
         <v>177.0083333333605</v>
       </c>
       <c r="O9">
-        <v>0.01088542582709645</v>
+        <v>1.0885425827096449E-2</v>
       </c>
       <c r="P9">
-        <v>6.803391141935283</v>
+        <v>6.8033911419352826</v>
       </c>
       <c r="Q9">
         <v>177.0083333333605</v>
       </c>
       <c r="S9">
-        <v>-0.001946506855311062</v>
+        <v>-1.946506855311062E-3</v>
       </c>
       <c r="T9">
-        <v>-1.216566784569414</v>
+        <v>-1.2165667845694139</v>
       </c>
       <c r="U9">
         <v>177.0083333333605</v>
       </c>
       <c r="V9">
-        <v>0.01022321267656656</v>
+        <v>1.022321267656656E-2</v>
       </c>
       <c r="W9">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X9">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y9">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z9">
-        <v>-0.04616104418316444</v>
+        <v>-4.616104418316444E-2</v>
       </c>
       <c r="AA9">
-        <v>-0.1146303524782512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>-0.11463035247825119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>201.1749999999593</v>
+        <v>201.17499999995931</v>
       </c>
       <c r="C10">
-        <v>0.03405384365838593</v>
+        <v>3.4053843658385929E-2</v>
       </c>
       <c r="D10">
-        <v>21.2836522864912</v>
+        <v>21.283652286491201</v>
       </c>
       <c r="E10">
-        <v>201.1749999999593</v>
+        <v>201.17499999995931</v>
       </c>
       <c r="G10">
-        <v>-0.010825293851593</v>
+        <v>-1.0825293851593001E-2</v>
       </c>
       <c r="H10">
-        <v>-6.765808657245623</v>
+        <v>-6.7658086572456231</v>
       </c>
       <c r="I10">
-        <v>201.1749999999593</v>
+        <v>201.17499999995931</v>
       </c>
       <c r="K10">
-        <v>-0.004278087689799516</v>
+        <v>-4.278087689799516E-3</v>
       </c>
       <c r="L10">
-        <v>-2.673804806124697</v>
+        <v>-2.6738048061246968</v>
       </c>
       <c r="M10">
-        <v>201.1749999999593</v>
+        <v>201.17499999995931</v>
       </c>
       <c r="O10">
-        <v>0.006282938760997229</v>
+        <v>6.2829387609972288E-3</v>
       </c>
       <c r="P10">
-        <v>3.926836725623268</v>
+        <v>3.9268367256232679</v>
       </c>
       <c r="Q10">
-        <v>201.1749999999593</v>
+        <v>201.17499999995931</v>
       </c>
       <c r="S10">
-        <v>0.0009162823337213994</v>
+        <v>9.162823337213994E-4</v>
       </c>
       <c r="T10">
-        <v>0.5726764585758746</v>
+        <v>0.57267645857587457</v>
       </c>
       <c r="U10">
-        <v>201.1749999999593</v>
+        <v>201.17499999995931</v>
       </c>
       <c r="V10">
-        <v>0.006627027306358032</v>
+        <v>6.6270273063580316E-3</v>
       </c>
       <c r="W10">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X10">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y10">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z10">
         <v>-0.3178875771025399</v>
       </c>
       <c r="AA10">
-        <v>-0.1256271607021963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>-0.12562716070219629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>225.7083333333721</v>
+        <v>225.70833333337211</v>
       </c>
       <c r="C11">
-        <v>0.02997011501477765</v>
+        <v>2.997011501477765E-2</v>
       </c>
       <c r="D11">
-        <v>18.73132188423603</v>
+        <v>18.731321884236031</v>
       </c>
       <c r="E11">
-        <v>225.7083333333721</v>
+        <v>225.70833333337211</v>
       </c>
       <c r="G11">
-        <v>-0.01018067672209661</v>
+        <v>-1.018067672209661E-2</v>
       </c>
       <c r="H11">
-        <v>-6.362922951310384</v>
+        <v>-6.3629229513103844</v>
       </c>
       <c r="I11">
-        <v>225.7083333333721</v>
+        <v>225.70833333337211</v>
       </c>
       <c r="K11">
-        <v>-0.00117564367723785</v>
+        <v>-1.1756436772378501E-3</v>
       </c>
       <c r="L11">
-        <v>-0.7347772982736562</v>
+        <v>-0.73477729827365623</v>
       </c>
       <c r="M11">
-        <v>225.7083333333721</v>
+        <v>225.70833333337211</v>
       </c>
       <c r="O11">
-        <v>0.0002209350295491638</v>
+        <v>2.209350295491638E-4</v>
       </c>
       <c r="P11">
         <v>0.1380843934682274</v>
       </c>
       <c r="Q11">
-        <v>225.7083333333721</v>
+        <v>225.70833333337211</v>
       </c>
       <c r="S11">
-        <v>0.001520889589371395</v>
+        <v>1.5208895893713951E-3</v>
       </c>
       <c r="T11">
         <v>0.9505559933571216</v>
       </c>
       <c r="U11">
-        <v>225.7083333333721</v>
+        <v>225.70833333337211</v>
       </c>
       <c r="V11">
-        <v>0.003949916614040534</v>
+        <v>3.9499166140405341E-3</v>
       </c>
       <c r="W11">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X11">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y11">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z11">
-        <v>-0.339694282690498</v>
+        <v>-0.33969428269049801</v>
       </c>
       <c r="AA11">
-        <v>-0.0392271993837249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>-3.9227199383724903E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>250.0916666667326</v>
+        <v>250.09166666673261</v>
       </c>
       <c r="C12">
-        <v>0.0358727087069506</v>
+        <v>3.5872708706950598E-2</v>
       </c>
       <c r="D12">
-        <v>22.42044294184412</v>
+        <v>22.420442941844119</v>
       </c>
       <c r="E12">
-        <v>250.0916666667326</v>
+        <v>250.09166666673261</v>
       </c>
       <c r="G12">
-        <v>-0.002725402221850634</v>
+        <v>-2.7254022218506338E-3</v>
       </c>
       <c r="H12">
         <v>-1.703376388656646</v>
       </c>
       <c r="I12">
-        <v>250.0916666667326</v>
+        <v>250.09166666673261</v>
       </c>
       <c r="K12">
-        <v>0.00337495226483257</v>
+        <v>3.37495226483257E-3</v>
       </c>
       <c r="L12">
-        <v>2.109345165520356</v>
+        <v>2.1093451655203559</v>
       </c>
       <c r="M12">
-        <v>250.0916666667326</v>
+        <v>250.09166666673261</v>
       </c>
       <c r="O12">
-        <v>-0.0004247752492762877</v>
+        <v>-4.2477524927628772E-4</v>
       </c>
       <c r="P12">
-        <v>-0.2654845307976798</v>
+        <v>-0.26548453079767981</v>
       </c>
       <c r="Q12">
-        <v>250.0916666667326</v>
+        <v>250.09166666673261</v>
       </c>
       <c r="S12">
-        <v>0.0003876428532798592</v>
+        <v>3.876428532798592E-4</v>
       </c>
       <c r="T12">
-        <v>0.242276783299912</v>
+        <v>0.24227678329991201</v>
       </c>
       <c r="U12">
-        <v>250.0916666667326</v>
+        <v>250.09166666673261</v>
       </c>
       <c r="V12">
-        <v>0.002239631296964318</v>
+        <v>2.2396312969643179E-3</v>
       </c>
       <c r="W12">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X12">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y12">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z12">
-        <v>-0.07597425229621892</v>
+        <v>-7.5974252296218917E-2</v>
       </c>
       <c r="AA12">
-        <v>0.09408133331672969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>9.4081333316729687E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273.4166666667152</v>
+        <v>273.41666666671517</v>
       </c>
       <c r="C13">
-        <v>0.04536049186705293</v>
+        <v>4.5360491867052932E-2</v>
       </c>
       <c r="D13">
         <v>28.35030741690808</v>
       </c>
       <c r="E13">
-        <v>273.4166666667152</v>
+        <v>273.41666666671517</v>
       </c>
       <c r="G13">
-        <v>-0.0002323348575010468</v>
+        <v>-2.3233485750104679E-4</v>
       </c>
       <c r="H13">
         <v>-0.1452092859381543</v>
       </c>
       <c r="I13">
-        <v>273.4166666667152</v>
+        <v>273.41666666671517</v>
       </c>
       <c r="K13">
-        <v>0.004613951464831982</v>
+        <v>4.6139514648319817E-3</v>
       </c>
       <c r="L13">
         <v>2.883719665519989</v>
       </c>
       <c r="M13">
-        <v>273.4166666667152</v>
+        <v>273.41666666671517</v>
       </c>
       <c r="O13">
-        <v>-5.558603402006652E-08</v>
+        <v>-5.5586034020066518E-8</v>
       </c>
       <c r="P13">
-        <v>-3.474127126254157E-05</v>
+        <v>-3.4741271262541568E-5</v>
       </c>
       <c r="Q13">
-        <v>273.4166666667152</v>
+        <v>273.41666666671517</v>
       </c>
       <c r="S13">
-        <v>-3.275520636749672E-05</v>
+        <v>-3.2755206367496721E-5</v>
       </c>
       <c r="T13">
-        <v>-0.02047200397968545</v>
+        <v>-2.047200397968545E-2</v>
       </c>
       <c r="U13">
-        <v>273.4166666667152</v>
+        <v>273.41666666671517</v>
       </c>
       <c r="V13">
-        <v>0.00126217021978214</v>
+        <v>1.2621702197821399E-3</v>
       </c>
       <c r="W13">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X13">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y13">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z13">
-        <v>-0.00512196512731822</v>
+        <v>-5.1219651273182202E-3</v>
       </c>
       <c r="AA13">
         <v>0.1017174037343998</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>296.8333333334012</v>
+        <v>296.83333333340119</v>
       </c>
       <c r="C14">
-        <v>0.04963207175859587</v>
+        <v>4.9632071758595873E-2</v>
       </c>
       <c r="D14">
         <v>31.02004484912241</v>
       </c>
       <c r="E14">
-        <v>296.8333333334012</v>
+        <v>296.83333333340119</v>
       </c>
       <c r="G14">
-        <v>-0.000647869734832494</v>
+        <v>-6.4786973483249403E-4</v>
       </c>
       <c r="H14">
-        <v>-0.4049185842703087</v>
+        <v>-0.40491858427030869</v>
       </c>
       <c r="I14">
-        <v>296.8333333334012</v>
+        <v>296.83333333340119</v>
       </c>
       <c r="K14">
-        <v>0.002334390614458716</v>
+        <v>2.3343906144587161E-3</v>
       </c>
       <c r="L14">
         <v>1.458994134036697</v>
       </c>
       <c r="M14">
-        <v>296.8333333334012</v>
+        <v>296.83333333340119</v>
       </c>
       <c r="O14">
-        <v>6.577632422118096E-06</v>
+        <v>6.5776324221180963E-6</v>
       </c>
       <c r="P14">
-        <v>0.00411102026382381</v>
+        <v>4.11102026382381E-3</v>
       </c>
       <c r="Q14">
-        <v>296.8333333334012</v>
+        <v>296.83333333340119</v>
       </c>
       <c r="S14">
-        <v>0.0003757074219265188</v>
+        <v>3.7570742192651881E-4</v>
       </c>
       <c r="T14">
         <v>0.2348171387040742</v>
       </c>
       <c r="U14">
-        <v>296.8333333334012</v>
+        <v>296.83333333340119</v>
       </c>
       <c r="V14">
-        <v>0.0006972776029560515</v>
+        <v>6.9727760295605146E-4</v>
       </c>
       <c r="W14">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X14">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y14">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z14">
-        <v>-0.01305344934992137</v>
+        <v>-1.305344934992137E-2</v>
       </c>
       <c r="AA14">
-        <v>0.04703391439738597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>4.7033914397385967E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>320.9250000000175</v>
+        <v>320.92500000001752</v>
       </c>
       <c r="C15">
-        <v>0.04818232285623589</v>
+        <v>4.8182322856235887E-2</v>
       </c>
       <c r="D15">
-        <v>30.11395178514743</v>
+        <v>30.113951785147432</v>
       </c>
       <c r="E15">
-        <v>320.9250000000175</v>
+        <v>320.92500000001752</v>
       </c>
       <c r="G15">
-        <v>0.006093116459076287</v>
+        <v>6.0931164590762874E-3</v>
       </c>
       <c r="H15">
-        <v>3.808197786922679</v>
+        <v>3.8081977869226789</v>
       </c>
       <c r="I15">
-        <v>320.9250000000175</v>
+        <v>320.92500000001752</v>
       </c>
       <c r="K15">
-        <v>0.0004402431422966492</v>
+        <v>4.4024314229664917E-4</v>
       </c>
       <c r="L15">
-        <v>0.2751519639354058</v>
+        <v>0.27515196393540581</v>
       </c>
       <c r="M15">
-        <v>320.9250000000175</v>
+        <v>320.92500000001752</v>
       </c>
       <c r="O15">
-        <v>8.773240861918325E-06</v>
+        <v>8.7732408619183252E-6</v>
       </c>
       <c r="P15">
-        <v>0.005483275538698953</v>
+        <v>5.4832755386989528E-3</v>
       </c>
       <c r="Q15">
-        <v>320.9250000000175</v>
+        <v>320.92500000001752</v>
       </c>
       <c r="S15">
-        <v>-3.187293546433225E-05</v>
+        <v>-3.1872935464332247E-5</v>
       </c>
       <c r="T15">
-        <v>-0.01992058466520766</v>
+        <v>-1.9920584665207661E-2</v>
       </c>
       <c r="U15">
-        <v>320.9250000000175</v>
+        <v>320.92500000001752</v>
       </c>
       <c r="V15">
-        <v>0.0003747415830441431</v>
+        <v>3.7474158304414313E-4</v>
       </c>
       <c r="W15">
-        <v>0.02629410590302368</v>
+        <v>2.6294105903023678E-2</v>
       </c>
       <c r="X15">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="Y15">
-        <v>17.7027000602997</v>
+        <v>17.702700060299701</v>
       </c>
       <c r="Z15">
-        <v>0.1264595830561477</v>
+        <v>0.12645958305614771</v>
       </c>
       <c r="AA15">
-        <v>0.009137026116615956</v>
+        <v>9.137026116615956E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1501,14 +1546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,39 +1636,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.8666666666395</v>
       </c>
       <c r="C2">
-        <v>0.06749870281107145</v>
+        <v>6.7498702811071454E-2</v>
       </c>
       <c r="D2">
-        <v>42.18668925691966</v>
+        <v>42.186689256919657</v>
       </c>
       <c r="E2">
         <v>10.8666666666395</v>
       </c>
       <c r="G2">
-        <v>0.07095242325934745</v>
+        <v>7.0952423259347447E-2</v>
       </c>
       <c r="H2">
-        <v>44.34526453709215</v>
+        <v>44.345264537092149</v>
       </c>
       <c r="I2">
         <v>10.8666666666395</v>
       </c>
       <c r="K2">
-        <v>-0.0101412493953795</v>
+        <v>-1.01412493953795E-2</v>
       </c>
       <c r="L2">
-        <v>-6.338280872112186</v>
+        <v>-6.3382808721121862</v>
       </c>
       <c r="M2">
         <v>10.8666666666395</v>
       </c>
       <c r="O2">
-        <v>0.05376281952335426</v>
+        <v>5.3762819523354259E-2</v>
       </c>
       <c r="P2">
         <v>33.60176220209641</v>
@@ -1632,388 +1677,388 @@
         <v>10.8666666666395</v>
       </c>
       <c r="S2">
-        <v>-0.01208894131164853</v>
+        <v>-1.2088941311648531E-2</v>
       </c>
       <c r="T2">
-        <v>-7.555588319780332</v>
+        <v>-7.5555883197803322</v>
       </c>
       <c r="U2">
         <v>10.8666666666395</v>
       </c>
       <c r="V2">
-        <v>0.0255636013598145</v>
+        <v>2.5563601359814499E-2</v>
       </c>
       <c r="W2">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X2">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y2">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z2">
         <v>1.051167212175069</v>
       </c>
       <c r="AA2">
-        <v>-0.1502436191072413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>-0.15024361910724129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>34.83333333328483</v>
+        <v>34.833333333284827</v>
       </c>
       <c r="C3">
-        <v>0.0874529246450047</v>
+        <v>8.7452924645004704E-2</v>
       </c>
       <c r="D3">
-        <v>54.65807790312794</v>
+        <v>54.658077903127939</v>
       </c>
       <c r="E3">
-        <v>34.83333333328483</v>
+        <v>34.833333333284827</v>
       </c>
       <c r="G3">
-        <v>0.07083255492967964</v>
+        <v>7.0832554929679645E-2</v>
       </c>
       <c r="H3">
-        <v>44.27034683104978</v>
+        <v>44.270346831049778</v>
       </c>
       <c r="I3">
-        <v>34.83333333328483</v>
+        <v>34.833333333284827</v>
       </c>
       <c r="K3">
-        <v>-0.009101119615073197</v>
+        <v>-9.1011196150731968E-3</v>
       </c>
       <c r="L3">
-        <v>-5.688199759420748</v>
+        <v>-5.6881997594207476</v>
       </c>
       <c r="M3">
-        <v>34.83333333328483</v>
+        <v>34.833333333284827</v>
       </c>
       <c r="O3">
-        <v>0.04203209102967254</v>
+        <v>4.2032091029672543E-2</v>
       </c>
       <c r="P3">
-        <v>26.27005689354534</v>
+        <v>26.270056893545341</v>
       </c>
       <c r="Q3">
-        <v>34.83333333328483</v>
+        <v>34.833333333284827</v>
       </c>
       <c r="S3">
-        <v>0.003050921581076257</v>
+        <v>3.0509215810762568E-3</v>
       </c>
       <c r="T3">
-        <v>1.90682598817266</v>
+        <v>1.9068259881726599</v>
       </c>
       <c r="U3">
-        <v>34.83333333328483</v>
+        <v>34.833333333284827</v>
       </c>
       <c r="V3">
-        <v>0.02520193351454493</v>
+        <v>2.520193351454493E-2</v>
       </c>
       <c r="W3">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X3">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y3">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z3">
-        <v>0.8099506702286782</v>
+        <v>0.80995067022867817</v>
       </c>
       <c r="AA3">
         <v>-0.1040687850293987</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>59.71666666661622</v>
       </c>
       <c r="C4">
-        <v>0.09390639043506804</v>
+        <v>9.3906390435068043E-2</v>
       </c>
       <c r="D4">
-        <v>58.69149402191753</v>
+        <v>58.691494021917528</v>
       </c>
       <c r="E4">
         <v>59.71666666661622</v>
       </c>
       <c r="G4">
-        <v>0.05705818199672635</v>
+        <v>5.7058181996726347E-2</v>
       </c>
       <c r="H4">
-        <v>35.66136374795396</v>
+        <v>35.661363747953963</v>
       </c>
       <c r="I4">
         <v>59.71666666661622</v>
       </c>
       <c r="K4">
-        <v>-0.007604067464585565</v>
+        <v>-7.6040674645855653E-3</v>
       </c>
       <c r="L4">
-        <v>-4.752542165365978</v>
+        <v>-4.7525421653659778</v>
       </c>
       <c r="M4">
         <v>59.71666666661622</v>
       </c>
       <c r="O4">
-        <v>0.01249341767622621</v>
+        <v>1.249341767622621E-2</v>
       </c>
       <c r="P4">
-        <v>7.808386047641381</v>
+        <v>7.8083860476413811</v>
       </c>
       <c r="Q4">
         <v>59.71666666661622</v>
       </c>
       <c r="S4">
-        <v>0.003192225919891372</v>
+        <v>3.1922259198913722E-3</v>
       </c>
       <c r="T4">
-        <v>1.995141199932107</v>
+        <v>1.9951411999321069</v>
       </c>
       <c r="U4">
         <v>59.71666666661622</v>
       </c>
       <c r="V4">
-        <v>0.02452143782200438</v>
+        <v>2.4521437822004381E-2</v>
       </c>
       <c r="W4">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X4">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y4">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z4">
-        <v>0.6076070194198281</v>
+        <v>0.60760701941982809</v>
       </c>
       <c r="AA4">
-        <v>-0.08097497336822278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>-8.0974973368222777E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83.20833333328483</v>
+        <v>83.208333333284827</v>
       </c>
       <c r="C5">
-        <v>0.07981608946752752</v>
+        <v>7.9816089467527523E-2</v>
       </c>
       <c r="D5">
-        <v>49.8850559172047</v>
+        <v>49.885055917204703</v>
       </c>
       <c r="E5">
-        <v>83.20833333328483</v>
+        <v>83.208333333284827</v>
       </c>
       <c r="G5">
-        <v>0.0380302892897217</v>
+        <v>3.80302892897217E-2</v>
       </c>
       <c r="H5">
         <v>23.76893080607606</v>
       </c>
       <c r="I5">
-        <v>83.20833333328483</v>
+        <v>83.208333333284827</v>
       </c>
       <c r="K5">
-        <v>-0.004842086328712679</v>
+        <v>-4.8420863287126793E-3</v>
       </c>
       <c r="L5">
         <v>-3.026303955445425</v>
       </c>
       <c r="M5">
-        <v>83.20833333328483</v>
+        <v>83.208333333284827</v>
       </c>
       <c r="O5">
-        <v>-0.01498888079824008</v>
+        <v>-1.498888079824008E-2</v>
       </c>
       <c r="P5">
-        <v>-9.368050498900047</v>
+        <v>-9.3680504989000468</v>
       </c>
       <c r="Q5">
-        <v>83.20833333328483</v>
+        <v>83.208333333284827</v>
       </c>
       <c r="S5">
-        <v>0.0005900772747426073</v>
+        <v>5.9007727474260729E-4</v>
       </c>
       <c r="T5">
-        <v>0.3687982967141296</v>
+        <v>0.36879829671412961</v>
       </c>
       <c r="U5">
-        <v>83.20833333328483</v>
+        <v>83.208333333284827</v>
       </c>
       <c r="V5">
-        <v>0.023404709089654</v>
+        <v>2.3404709089653999E-2</v>
       </c>
       <c r="W5">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X5">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y5">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z5">
-        <v>0.4764739733984836</v>
+        <v>0.47647397339848357</v>
       </c>
       <c r="AA5">
-        <v>-0.06066554201058221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>-6.0665542010582212E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>105.666666666657</v>
+        <v>105.66666666665699</v>
       </c>
       <c r="C6">
-        <v>0.0705061401155842</v>
+        <v>7.0506140115584204E-2</v>
       </c>
       <c r="D6">
-        <v>44.06633757224012</v>
+        <v>44.066337572240123</v>
       </c>
       <c r="E6">
-        <v>105.666666666657</v>
+        <v>105.66666666665699</v>
       </c>
       <c r="G6">
-        <v>0.02948442572096373</v>
+        <v>2.9484425720963731E-2</v>
       </c>
       <c r="H6">
-        <v>18.42776607560233</v>
+        <v>18.427766075602332</v>
       </c>
       <c r="I6">
-        <v>105.666666666657</v>
+        <v>105.66666666665699</v>
       </c>
       <c r="K6">
-        <v>-0.004958953073424336</v>
+        <v>-4.9589530734243364E-3</v>
       </c>
       <c r="L6">
-        <v>-3.09934567089021</v>
+        <v>-3.0993456708902101</v>
       </c>
       <c r="M6">
-        <v>105.666666666657</v>
+        <v>105.66666666665699</v>
       </c>
       <c r="O6">
-        <v>-0.01399385537487699</v>
+        <v>-1.399385537487699E-2</v>
       </c>
       <c r="P6">
         <v>-8.74615960929812</v>
       </c>
       <c r="Q6">
-        <v>105.666666666657</v>
+        <v>105.66666666665699</v>
       </c>
       <c r="S6">
-        <v>-0.00164879409015162</v>
+        <v>-1.64879409015162E-3</v>
       </c>
       <c r="T6">
-        <v>-1.030496306344762</v>
+        <v>-1.0304963063447621</v>
       </c>
       <c r="U6">
-        <v>105.666666666657</v>
+        <v>105.66666666665699</v>
       </c>
       <c r="V6">
-        <v>0.0216909719265003</v>
+        <v>2.16909719265003E-2</v>
       </c>
       <c r="W6">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X6">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y6">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z6">
-        <v>0.4181823834438881</v>
+        <v>0.41818238344388808</v>
       </c>
       <c r="AA6">
-        <v>-0.070333634280573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>-7.0333634280573001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>128.4833333333081</v>
+        <v>128.48333333330811</v>
       </c>
       <c r="C7">
-        <v>0.06031679805169207</v>
+        <v>6.0316798051692072E-2</v>
       </c>
       <c r="D7">
-        <v>37.69799878230754</v>
+        <v>37.697998782307543</v>
       </c>
       <c r="E7">
-        <v>128.4833333333081</v>
+        <v>128.48333333330811</v>
       </c>
       <c r="G7">
-        <v>0.02452959949822745</v>
+        <v>2.4529599498227452E-2</v>
       </c>
       <c r="H7">
         <v>15.33099968639215</v>
       </c>
       <c r="I7">
-        <v>128.4833333333081</v>
+        <v>128.48333333330811</v>
       </c>
       <c r="K7">
-        <v>-0.004844430684983443</v>
+        <v>-4.8444306849834426E-3</v>
       </c>
       <c r="L7">
-        <v>-3.027769178114652</v>
+        <v>-3.0277691781146521</v>
       </c>
       <c r="M7">
-        <v>128.4833333333081</v>
+        <v>128.48333333330811</v>
       </c>
       <c r="O7">
-        <v>-0.003197076370838972</v>
+        <v>-3.197076370838972E-3</v>
       </c>
       <c r="P7">
-        <v>-1.998172731774357</v>
+        <v>-1.9981727317743569</v>
       </c>
       <c r="Q7">
-        <v>128.4833333333081</v>
+        <v>128.48333333330811</v>
       </c>
       <c r="S7">
-        <v>-0.003728340071463165</v>
+        <v>-3.7283400714631649E-3</v>
       </c>
       <c r="T7">
-        <v>-2.330212544664478</v>
+        <v>-2.3302125446644779</v>
       </c>
       <c r="U7">
-        <v>128.4833333333081</v>
+        <v>128.48333333330811</v>
       </c>
       <c r="V7">
-        <v>0.01912693130032752</v>
+        <v>1.912693130032752E-2</v>
       </c>
       <c r="W7">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X7">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y7">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z7">
-        <v>0.4066794042549366</v>
+        <v>0.40667940425493659</v>
       </c>
       <c r="AA7">
-        <v>-0.08031644320429145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>-8.0316443204291446E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>152.9083333332965</v>
       </c>
       <c r="C8">
-        <v>0.05334088367082383</v>
+        <v>5.3340883670823833E-2</v>
       </c>
       <c r="D8">
-        <v>33.33805229426489</v>
+        <v>33.338052294264891</v>
       </c>
       <c r="E8">
         <v>152.9083333332965</v>
       </c>
       <c r="G8">
-        <v>0.01712895675321221</v>
+        <v>1.7128956753212209E-2</v>
       </c>
       <c r="H8">
         <v>10.70559797075763</v>
@@ -2022,16 +2067,16 @@
         <v>152.9083333332965</v>
       </c>
       <c r="K8">
-        <v>-0.004986595593399935</v>
+        <v>-4.986595593399935E-3</v>
       </c>
       <c r="L8">
-        <v>-3.116622245874959</v>
+        <v>-3.1166222458749591</v>
       </c>
       <c r="M8">
         <v>152.9083333332965</v>
       </c>
       <c r="O8">
-        <v>0.01012540521172896</v>
+        <v>1.012540521172896E-2</v>
       </c>
       <c r="P8">
         <v>6.328378257330602</v>
@@ -2040,7 +2085,7 @@
         <v>152.9083333332965</v>
       </c>
       <c r="S8">
-        <v>-0.004160503779549755</v>
+        <v>-4.1605037795497549E-3</v>
       </c>
       <c r="T8">
         <v>-2.600314862218597</v>
@@ -2049,498 +2094,498 @@
         <v>152.9083333332965</v>
       </c>
       <c r="V8">
-        <v>0.01549585624252519</v>
+        <v>1.549585624252519E-2</v>
       </c>
       <c r="W8">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X8">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y8">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z8">
-        <v>0.3211224781898642</v>
+        <v>0.32112247818986422</v>
       </c>
       <c r="AA8">
-        <v>-0.09348543275310382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>-9.3485432753103823E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>176.9249999999302</v>
+        <v>176.92499999993021</v>
       </c>
       <c r="C9">
-        <v>0.04897107039447122</v>
+        <v>4.8971070394471218E-2</v>
       </c>
       <c r="D9">
-        <v>30.60691899654451</v>
+        <v>30.606918996544511</v>
       </c>
       <c r="E9">
-        <v>176.9249999999302</v>
+        <v>176.92499999993021</v>
       </c>
       <c r="G9">
-        <v>0.001734730667921726</v>
+        <v>1.734730667921726E-3</v>
       </c>
       <c r="H9">
         <v>1.084206667451078</v>
       </c>
       <c r="I9">
-        <v>176.9249999999302</v>
+        <v>176.92499999993021</v>
       </c>
       <c r="K9">
-        <v>-0.002474375617620974</v>
+        <v>-2.4743756176209739E-3</v>
       </c>
       <c r="L9">
-        <v>-1.546484761013109</v>
+        <v>-1.5464847610131089</v>
       </c>
       <c r="M9">
-        <v>176.9249999999302</v>
+        <v>176.92499999993021</v>
       </c>
       <c r="O9">
-        <v>0.01152826563774052</v>
+        <v>1.1528265637740519E-2</v>
       </c>
       <c r="P9">
-        <v>7.205166023587825</v>
+        <v>7.2051660235878252</v>
       </c>
       <c r="Q9">
-        <v>176.9249999999302</v>
+        <v>176.92499999993021</v>
       </c>
       <c r="S9">
-        <v>-0.002221957591014953</v>
+        <v>-2.2219575910149528E-3</v>
       </c>
       <c r="T9">
-        <v>-1.388723494384345</v>
+        <v>-1.3887234943843449</v>
       </c>
       <c r="U9">
-        <v>176.9249999999302</v>
+        <v>176.92499999993021</v>
       </c>
       <c r="V9">
-        <v>0.01147703077580706</v>
+        <v>1.147703077580706E-2</v>
       </c>
       <c r="W9">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X9">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y9">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z9">
-        <v>0.03542358077836859</v>
+        <v>3.5423580778368588E-2</v>
       </c>
       <c r="AA9">
-        <v>-0.05052729290353287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>-5.0527292903532868E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>201.0916666665289</v>
+        <v>201.09166666652891</v>
       </c>
       <c r="C10">
-        <v>0.03935923296370056</v>
+        <v>3.9359232963700558E-2</v>
       </c>
       <c r="D10">
         <v>24.59952060231285</v>
       </c>
       <c r="E10">
-        <v>201.0916666665289</v>
+        <v>201.09166666652891</v>
       </c>
       <c r="G10">
-        <v>-0.007397945265892623</v>
+        <v>-7.3979452658926234E-3</v>
       </c>
       <c r="H10">
-        <v>-4.623715791182889</v>
+        <v>-4.6237157911828888</v>
       </c>
       <c r="I10">
-        <v>201.0916666665289</v>
+        <v>201.09166666652891</v>
       </c>
       <c r="K10">
-        <v>-0.0005985833547127726</v>
+        <v>-5.9858335471277258E-4</v>
       </c>
       <c r="L10">
-        <v>-0.3741145966954829</v>
+        <v>-0.37411459669548291</v>
       </c>
       <c r="M10">
-        <v>201.0916666665289</v>
+        <v>201.09166666652891</v>
       </c>
       <c r="O10">
-        <v>0.005614740676070788</v>
+        <v>5.6147406760707879E-3</v>
       </c>
       <c r="P10">
-        <v>3.509212922544242</v>
+        <v>3.5092129225442421</v>
       </c>
       <c r="Q10">
-        <v>201.0916666665289</v>
+        <v>201.09166666652891</v>
       </c>
       <c r="S10">
-        <v>0.0007436610984786004</v>
+        <v>7.4366109847860044E-4</v>
       </c>
       <c r="T10">
-        <v>0.4647881865491252</v>
+        <v>0.46478818654912518</v>
       </c>
       <c r="U10">
-        <v>201.0916666665289</v>
+        <v>201.09166666652891</v>
       </c>
       <c r="V10">
-        <v>0.007711665280701269</v>
+        <v>7.711665280701269E-3</v>
       </c>
       <c r="W10">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X10">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y10">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z10">
-        <v>-0.1879595893729802</v>
+        <v>-0.18795958937298021</v>
       </c>
       <c r="AA10">
-        <v>-0.0152082068079127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>-1.52082068079127E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>225.6249999999418</v>
+        <v>225.62499999994179</v>
       </c>
       <c r="C11">
-        <v>0.03400886327843877</v>
+        <v>3.4008863278438772E-2</v>
       </c>
       <c r="D11">
-        <v>21.25553954902423</v>
+        <v>21.255539549024231</v>
       </c>
       <c r="E11">
-        <v>225.6249999999418</v>
+        <v>225.62499999994179</v>
       </c>
       <c r="G11">
-        <v>-0.009399619671121762</v>
+        <v>-9.399619671121762E-3</v>
       </c>
       <c r="H11">
-        <v>-5.874762294451101</v>
+        <v>-5.8747622944511013</v>
       </c>
       <c r="I11">
-        <v>225.6249999999418</v>
+        <v>225.62499999994179</v>
       </c>
       <c r="K11">
-        <v>0.000688413822853555</v>
+        <v>6.8841382285355496E-4</v>
       </c>
       <c r="L11">
-        <v>0.4302586392834719</v>
+        <v>0.43025863928347191</v>
       </c>
       <c r="M11">
-        <v>225.6249999999418</v>
+        <v>225.62499999994179</v>
       </c>
       <c r="O11">
-        <v>-0.0002190890544552114</v>
+        <v>-2.1908905445521139E-4</v>
       </c>
       <c r="P11">
         <v>-0.1369306590345071</v>
       </c>
       <c r="Q11">
-        <v>225.6249999999418</v>
+        <v>225.62499999994179</v>
       </c>
       <c r="S11">
-        <v>0.001800170678250107</v>
+        <v>1.8001706782501069E-3</v>
       </c>
       <c r="T11">
-        <v>1.125106673906317</v>
+        <v>1.1251066739063169</v>
       </c>
       <c r="U11">
-        <v>225.6249999999418</v>
+        <v>225.62499999994179</v>
       </c>
       <c r="V11">
-        <v>0.004738263693682729</v>
+        <v>4.7382636936827288E-3</v>
       </c>
       <c r="W11">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X11">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y11">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z11">
-        <v>-0.2763873521489033</v>
+        <v>-0.27638735214890331</v>
       </c>
       <c r="AA11">
-        <v>0.02024218855000665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>2.0242188550006649E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>250.0083333333023</v>
+        <v>250.00833333330229</v>
       </c>
       <c r="C12">
-        <v>0.03816760660471871</v>
+        <v>3.8167606604718712E-2</v>
       </c>
       <c r="D12">
-        <v>23.85475412794919</v>
+        <v>23.854754127949189</v>
       </c>
       <c r="E12">
-        <v>250.0083333333023</v>
+        <v>250.00833333330229</v>
       </c>
       <c r="G12">
-        <v>-0.006983455629516813</v>
+        <v>-6.9834556295168132E-3</v>
       </c>
       <c r="H12">
         <v>-4.364659768448008</v>
       </c>
       <c r="I12">
-        <v>250.0083333333023</v>
+        <v>250.00833333330229</v>
       </c>
       <c r="K12">
-        <v>0.0007530570239431265</v>
+        <v>7.5305702394312646E-4</v>
       </c>
       <c r="L12">
-        <v>0.470660639964454</v>
+        <v>0.47066063996445401</v>
       </c>
       <c r="M12">
-        <v>250.0083333333023</v>
+        <v>250.00833333330229</v>
       </c>
       <c r="O12">
-        <v>-0.000290397792201546</v>
+        <v>-2.9039779220154603E-4</v>
       </c>
       <c r="P12">
-        <v>-0.1814986201259662</v>
+        <v>-0.18149862012596621</v>
       </c>
       <c r="Q12">
-        <v>250.0083333333023</v>
+        <v>250.00833333330229</v>
       </c>
       <c r="S12">
-        <v>0.001408430487838981</v>
+        <v>1.408430487838981E-3</v>
       </c>
       <c r="T12">
-        <v>0.8802690548993634</v>
+        <v>0.88026905489936336</v>
       </c>
       <c r="U12">
-        <v>250.0083333333023</v>
+        <v>250.00833333330229</v>
       </c>
       <c r="V12">
-        <v>0.00274911097230377</v>
+        <v>2.74911097230377E-3</v>
       </c>
       <c r="W12">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X12">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y12">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z12">
         <v>-0.1829681305888706</v>
       </c>
       <c r="AA12">
-        <v>0.01973026581787356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>1.9730265817873561E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>273.3333333332848</v>
+        <v>273.33333333328483</v>
       </c>
       <c r="C13">
-        <v>0.04382843304398205</v>
+        <v>4.3828433043982047E-2</v>
       </c>
       <c r="D13">
-        <v>27.39277065248878</v>
+        <v>27.392770652488782</v>
       </c>
       <c r="E13">
-        <v>273.3333333332848</v>
+        <v>273.33333333328483</v>
       </c>
       <c r="G13">
-        <v>-0.006432638262868108</v>
+        <v>-6.4326382628681084E-3</v>
       </c>
       <c r="H13">
         <v>-4.020398914292568</v>
       </c>
       <c r="I13">
-        <v>273.3333333332848</v>
+        <v>273.33333333328483</v>
       </c>
       <c r="K13">
-        <v>0.000802792298517438</v>
+        <v>8.0279229851743796E-4</v>
       </c>
       <c r="L13">
-        <v>0.5017451865733987</v>
+        <v>0.50174518657339873</v>
       </c>
       <c r="M13">
-        <v>273.3333333332848</v>
+        <v>273.33333333328483</v>
       </c>
       <c r="O13">
-        <v>-1.159605316914691E-05</v>
+        <v>-1.159605316914691E-5</v>
       </c>
       <c r="P13">
-        <v>-0.007247533230716818</v>
+        <v>-7.2475332307168176E-3</v>
       </c>
       <c r="Q13">
-        <v>273.3333333332848</v>
+        <v>273.33333333328483</v>
       </c>
       <c r="S13">
-        <v>0.001153558193771731</v>
+        <v>1.1535581937717309E-3</v>
       </c>
       <c r="T13">
-        <v>0.7209738711073317</v>
+        <v>0.72097387110733169</v>
       </c>
       <c r="U13">
-        <v>273.3333333332848</v>
+        <v>273.33333333328483</v>
       </c>
       <c r="V13">
-        <v>0.001574941585471527</v>
+        <v>1.574941585471527E-3</v>
       </c>
       <c r="W13">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X13">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y13">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z13">
-        <v>-0.1467686115178456</v>
+        <v>-0.14676861151784559</v>
       </c>
       <c r="AA13">
-        <v>0.0183167008893937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>1.8316700889393699E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>296.7499999999709</v>
       </c>
       <c r="C14">
-        <v>0.04263763438188208</v>
+        <v>4.2637634381882082E-2</v>
       </c>
       <c r="D14">
-        <v>26.6485214886763</v>
+        <v>26.648521488676302</v>
       </c>
       <c r="E14">
         <v>296.7499999999709</v>
       </c>
       <c r="G14">
-        <v>-0.002469703629331315</v>
+        <v>-2.4697036293313151E-3</v>
       </c>
       <c r="H14">
-        <v>-1.543564768332072</v>
+        <v>-1.5435647683320719</v>
       </c>
       <c r="I14">
         <v>296.7499999999709</v>
       </c>
       <c r="K14">
-        <v>0.0004151617451053106</v>
+        <v>4.1516174510531061E-4</v>
       </c>
       <c r="L14">
-        <v>0.2594760906908191</v>
+        <v>0.25947609069081912</v>
       </c>
       <c r="M14">
         <v>296.7499999999709</v>
       </c>
       <c r="O14">
-        <v>-9.343781468308611E-06</v>
+        <v>-9.3437814683086109E-6</v>
       </c>
       <c r="P14">
-        <v>-0.005839863417692882</v>
+        <v>-5.8398634176928818E-3</v>
       </c>
       <c r="Q14">
         <v>296.7499999999709</v>
       </c>
       <c r="S14">
-        <v>0.0006634943512649281</v>
+        <v>6.634943512649281E-4</v>
       </c>
       <c r="T14">
-        <v>0.4146839695405801</v>
+        <v>0.41468396954058012</v>
       </c>
       <c r="U14">
         <v>296.7499999999709</v>
       </c>
       <c r="V14">
-        <v>0.0008811853053694403</v>
+        <v>8.8118530536944028E-4</v>
       </c>
       <c r="W14">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X14">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y14">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z14">
-        <v>-0.05792309224314661</v>
+        <v>-5.7923092243146609E-2</v>
       </c>
       <c r="AA14">
-        <v>0.009736978871457381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>9.7369788714573805E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>320.8416666665871</v>
+        <v>320.84166666658712</v>
       </c>
       <c r="C15">
-        <v>0.03789405687825904</v>
+        <v>3.7894056878259037E-2</v>
       </c>
       <c r="D15">
-        <v>23.6837855489119</v>
+        <v>23.683785548911899</v>
       </c>
       <c r="E15">
-        <v>320.8416666665871</v>
+        <v>320.84166666658712</v>
       </c>
       <c r="G15">
-        <v>0.004234852280069977</v>
+        <v>4.2348522800699766E-3</v>
       </c>
       <c r="H15">
-        <v>2.646782675043735</v>
+        <v>2.6467826750437351</v>
       </c>
       <c r="I15">
-        <v>320.8416666665871</v>
+        <v>320.84166666658712</v>
       </c>
       <c r="K15">
-        <v>0.001862545322164612</v>
+        <v>1.862545322164612E-3</v>
       </c>
       <c r="L15">
-        <v>1.164090826352883</v>
+        <v>1.1640908263528831</v>
       </c>
       <c r="M15">
-        <v>320.8416666665871</v>
+        <v>320.84166666658712</v>
       </c>
       <c r="O15">
-        <v>-1.873341971135771E-05</v>
+        <v>-1.8733419711357711E-5</v>
       </c>
       <c r="P15">
-        <v>-0.01170838731959857</v>
+        <v>-1.170838731959857E-2</v>
       </c>
       <c r="Q15">
-        <v>320.8416666665871</v>
+        <v>320.84166666658712</v>
       </c>
       <c r="S15">
-        <v>-0.002130678239922709</v>
+        <v>-2.1306782399227089E-3</v>
       </c>
       <c r="T15">
-        <v>-1.331673899951693</v>
+        <v>-1.3316738999516931</v>
       </c>
       <c r="U15">
-        <v>320.8416666665871</v>
+        <v>320.84166666658712</v>
       </c>
       <c r="V15">
-        <v>0.0004786191112518732</v>
+        <v>4.7861911125187323E-4</v>
       </c>
       <c r="W15">
-        <v>0.02599510156114022</v>
+        <v>2.5995101561140221E-2</v>
       </c>
       <c r="X15">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="Y15">
-        <v>20.26006842350617</v>
+        <v>20.260068423506169</v>
       </c>
       <c r="Z15">
-        <v>0.1117550515553176</v>
+        <v>0.11175505155531761</v>
       </c>
       <c r="AA15">
-        <v>0.0491513835044991</v>
+        <v>4.9151383504499102E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2549,14 +2594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,21 +2684,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.78333333338378</v>
       </c>
       <c r="C2">
-        <v>0.0374456137281992</v>
+        <v>3.7445613728199198E-2</v>
       </c>
       <c r="D2">
-        <v>23.4035085801245</v>
+        <v>23.403508580124502</v>
       </c>
       <c r="E2">
         <v>10.78333333338378</v>
       </c>
       <c r="G2">
-        <v>0.07471391552627475</v>
+        <v>7.4713915526274752E-2</v>
       </c>
       <c r="H2">
         <v>46.69619720392172</v>
@@ -2662,270 +2707,270 @@
         <v>10.78333333338378</v>
       </c>
       <c r="K2">
-        <v>-0.009860535215577742</v>
+        <v>-9.8605352155777416E-3</v>
       </c>
       <c r="L2">
-        <v>-6.162834509736088</v>
+        <v>-6.1628345097360882</v>
       </c>
       <c r="M2">
         <v>10.78333333338378</v>
       </c>
       <c r="O2">
-        <v>0.009716508129851288</v>
+        <v>9.7165081298512881E-3</v>
       </c>
       <c r="P2">
-        <v>6.072817581157055</v>
+        <v>6.0728175811570546</v>
       </c>
       <c r="Q2">
         <v>10.78333333338378</v>
       </c>
       <c r="S2">
-        <v>-0.01107167677843806</v>
+        <v>-1.107167677843806E-2</v>
       </c>
       <c r="T2">
-        <v>-6.91979798652379</v>
+        <v>-6.9197979865237897</v>
       </c>
       <c r="U2">
         <v>10.78333333338378</v>
       </c>
       <c r="V2">
-        <v>0.02570464835356579</v>
+        <v>2.5704648353565791E-2</v>
       </c>
       <c r="W2">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X2">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y2">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z2">
         <v>1.995264814420971</v>
       </c>
       <c r="AA2">
-        <v>-0.2633295126940878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>-0.26332951269408778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>34.7500000000291</v>
+        <v>34.750000000029097</v>
       </c>
       <c r="C3">
         <v>0.1192479786285244</v>
       </c>
       <c r="D3">
-        <v>74.52998664282777</v>
+        <v>74.529986642827765</v>
       </c>
       <c r="E3">
-        <v>34.7500000000291</v>
+        <v>34.750000000029097</v>
       </c>
       <c r="G3">
-        <v>0.06275508189764969</v>
+        <v>6.2755081897649695E-2</v>
       </c>
       <c r="H3">
-        <v>39.22192618603106</v>
+        <v>39.221926186031062</v>
       </c>
       <c r="I3">
-        <v>34.7500000000291</v>
+        <v>34.750000000029097</v>
       </c>
       <c r="K3">
-        <v>-0.008566274606333212</v>
+        <v>-8.5662746063332115E-3</v>
       </c>
       <c r="L3">
-        <v>-5.353921628958257</v>
+        <v>-5.3539216289582567</v>
       </c>
       <c r="M3">
-        <v>34.7500000000291</v>
+        <v>34.750000000029097</v>
       </c>
       <c r="O3">
-        <v>0.03696224149786325</v>
+        <v>3.696224149786325E-2</v>
       </c>
       <c r="P3">
-        <v>23.10140093616453</v>
+        <v>23.101400936164531</v>
       </c>
       <c r="Q3">
-        <v>34.7500000000291</v>
+        <v>34.750000000029097</v>
       </c>
       <c r="S3">
-        <v>0.0033176331572336</v>
+        <v>3.3176331572335998E-3</v>
       </c>
       <c r="T3">
-        <v>2.073520723271</v>
+        <v>2.0735207232709998</v>
       </c>
       <c r="U3">
-        <v>34.7500000000291</v>
+        <v>34.750000000029097</v>
       </c>
       <c r="V3">
-        <v>0.02531407062814458</v>
+        <v>2.5314070628144579E-2</v>
       </c>
       <c r="W3">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X3">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y3">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z3">
-        <v>0.5262569866541831</v>
+        <v>0.52625698665418308</v>
       </c>
       <c r="AA3">
-        <v>-0.07183580556127042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>-7.1835805561270422E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>59.6333333333605</v>
+        <v>59.633333333360497</v>
       </c>
       <c r="C4">
         <v>0.1122154193810621</v>
       </c>
       <c r="D4">
-        <v>70.13463711316379</v>
+        <v>70.134637113163791</v>
       </c>
       <c r="E4">
-        <v>59.6333333333605</v>
+        <v>59.633333333360497</v>
       </c>
       <c r="G4">
-        <v>0.04757564378614521</v>
+        <v>4.7575643786145212E-2</v>
       </c>
       <c r="H4">
-        <v>29.73477736634076</v>
+        <v>29.734777366340762</v>
       </c>
       <c r="I4">
-        <v>59.6333333333605</v>
+        <v>59.633333333360497</v>
       </c>
       <c r="K4">
-        <v>-0.007235029492622089</v>
+        <v>-7.2350294926220894E-3</v>
       </c>
       <c r="L4">
-        <v>-4.521893432888806</v>
+        <v>-4.5218934328888061</v>
       </c>
       <c r="M4">
-        <v>59.6333333333605</v>
+        <v>59.633333333360497</v>
       </c>
       <c r="O4">
-        <v>0.01536447112024369</v>
+        <v>1.5364471120243689E-2</v>
       </c>
       <c r="P4">
-        <v>9.602794450152309</v>
+        <v>9.6027944501523095</v>
       </c>
       <c r="Q4">
-        <v>59.6333333333605</v>
+        <v>59.633333333360497</v>
       </c>
       <c r="S4">
-        <v>0.003436644690073379</v>
+        <v>3.4366446900733791E-3</v>
       </c>
       <c r="T4">
         <v>2.147902931295862</v>
       </c>
       <c r="U4">
-        <v>59.6333333333605</v>
+        <v>59.633333333360497</v>
       </c>
       <c r="V4">
-        <v>0.02457841032464412</v>
+        <v>2.4578410324644119E-2</v>
       </c>
       <c r="W4">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X4">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y4">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z4">
-        <v>0.4239670808927554</v>
+        <v>0.42396708089275542</v>
       </c>
       <c r="AA4">
-        <v>-0.06447446823732232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>-6.4474468237322322E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83.1250000000291</v>
+        <v>83.125000000029104</v>
       </c>
       <c r="C5">
-        <v>0.0711680486069006</v>
+        <v>7.1168048606900597E-2</v>
       </c>
       <c r="D5">
-        <v>44.48003037931287</v>
+        <v>44.480030379312872</v>
       </c>
       <c r="E5">
-        <v>83.1250000000291</v>
+        <v>83.125000000029104</v>
       </c>
       <c r="G5">
-        <v>0.03252724277307888</v>
+        <v>3.2527242773078877E-2</v>
       </c>
       <c r="H5">
-        <v>20.3295267331743</v>
+        <v>20.329526733174301</v>
       </c>
       <c r="I5">
-        <v>83.1250000000291</v>
+        <v>83.125000000029104</v>
       </c>
       <c r="K5">
-        <v>-0.004754342200686814</v>
+        <v>-4.7543422006868143E-3</v>
       </c>
       <c r="L5">
-        <v>-2.971463875429259</v>
+        <v>-2.9714638754292588</v>
       </c>
       <c r="M5">
-        <v>83.1250000000291</v>
+        <v>83.125000000029104</v>
       </c>
       <c r="O5">
-        <v>-0.01379267807580474</v>
+        <v>-1.379267807580474E-2</v>
       </c>
       <c r="P5">
-        <v>-8.620423797377962</v>
+        <v>-8.6204237973779616</v>
       </c>
       <c r="Q5">
-        <v>83.1250000000291</v>
+        <v>83.125000000029104</v>
       </c>
       <c r="S5">
-        <v>0.0002778886578492981</v>
+        <v>2.778886578492981E-4</v>
       </c>
       <c r="T5">
-        <v>0.1736804111558113</v>
+        <v>0.17368041115581129</v>
       </c>
       <c r="U5">
-        <v>83.1250000000291</v>
+        <v>83.125000000029104</v>
       </c>
       <c r="V5">
-        <v>0.02337313681349034</v>
+        <v>2.337313681349034E-2</v>
       </c>
       <c r="W5">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X5">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y5">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z5">
-        <v>0.4570484003677596</v>
+        <v>0.45704840036775962</v>
       </c>
       <c r="AA5">
-        <v>-0.06680444797563023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>-6.6804447975630232E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105.5833333334012</v>
       </c>
       <c r="C6">
-        <v>0.05809308383793023</v>
+        <v>5.8093083837930229E-2</v>
       </c>
       <c r="D6">
-        <v>36.30817739870639</v>
+        <v>36.308177398706391</v>
       </c>
       <c r="E6">
         <v>105.5833333334012</v>
       </c>
       <c r="G6">
-        <v>0.02437964312913938</v>
+        <v>2.4379643129139379E-2</v>
       </c>
       <c r="H6">
         <v>15.23727695571211</v>
@@ -2934,25 +2979,25 @@
         <v>105.5833333334012</v>
       </c>
       <c r="K6">
-        <v>-0.005136819850974191</v>
+        <v>-5.1368198509741912E-3</v>
       </c>
       <c r="L6">
-        <v>-3.210512406858869</v>
+        <v>-3.2105124068588689</v>
       </c>
       <c r="M6">
         <v>105.5833333334012</v>
       </c>
       <c r="O6">
-        <v>-0.01380350470709346</v>
+        <v>-1.380350470709346E-2</v>
       </c>
       <c r="P6">
-        <v>-8.627190441933415</v>
+        <v>-8.6271904419334149</v>
       </c>
       <c r="Q6">
         <v>105.5833333334012</v>
       </c>
       <c r="S6">
-        <v>-0.001678085596392096</v>
+        <v>-1.678085596392096E-3</v>
       </c>
       <c r="T6">
         <v>-1.04880349774506</v>
@@ -2961,184 +3006,184 @@
         <v>105.5833333334012</v>
       </c>
       <c r="V6">
-        <v>0.0215339271427265</v>
+        <v>2.1533927142726499E-2</v>
       </c>
       <c r="W6">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X6">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y6">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z6">
-        <v>0.4196651566502205</v>
+        <v>0.41966515665022053</v>
       </c>
       <c r="AA6">
-        <v>-0.08842394845667068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>-8.8423948456670676E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>128.4000000000524</v>
+        <v>128.40000000005239</v>
       </c>
       <c r="C7">
-        <v>0.05611653134022356</v>
+        <v>5.6116531340223562E-2</v>
       </c>
       <c r="D7">
-        <v>35.07283208763972</v>
+        <v>35.072832087639718</v>
       </c>
       <c r="E7">
-        <v>128.4000000000524</v>
+        <v>128.40000000005239</v>
       </c>
       <c r="G7">
-        <v>0.01525393670719586</v>
+        <v>1.525393670719586E-2</v>
       </c>
       <c r="H7">
-        <v>9.533710441997412</v>
+        <v>9.5337104419974121</v>
       </c>
       <c r="I7">
-        <v>128.4000000000524</v>
+        <v>128.40000000005239</v>
       </c>
       <c r="K7">
-        <v>-0.005423088875987493</v>
+        <v>-5.423088875987493E-3</v>
       </c>
       <c r="L7">
-        <v>-3.389430547492183</v>
+        <v>-3.3894305474921831</v>
       </c>
       <c r="M7">
-        <v>128.4000000000524</v>
+        <v>128.40000000005239</v>
       </c>
       <c r="O7">
-        <v>-0.002707741381536061</v>
+        <v>-2.707741381536061E-3</v>
       </c>
       <c r="P7">
         <v>-1.692338363460038</v>
       </c>
       <c r="Q7">
-        <v>128.4000000000524</v>
+        <v>128.40000000005239</v>
       </c>
       <c r="S7">
-        <v>-0.003212663822857966</v>
+        <v>-3.2126638228579659E-3</v>
       </c>
       <c r="T7">
-        <v>-2.007914889286229</v>
+        <v>-2.0079148892862291</v>
       </c>
       <c r="U7">
-        <v>128.4000000000524</v>
+        <v>128.40000000005239</v>
       </c>
       <c r="V7">
-        <v>0.01881304525936661</v>
+        <v>1.8813045259366609E-2</v>
       </c>
       <c r="W7">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X7">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y7">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z7">
-        <v>0.2718260794615801</v>
+        <v>0.27182607946158011</v>
       </c>
       <c r="AA7">
-        <v>-0.09663977345834804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>-9.6639773458348038E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>152.8250000000407</v>
+        <v>152.82500000004069</v>
       </c>
       <c r="C8">
-        <v>0.05072273473365022</v>
+        <v>5.0722734733650222E-2</v>
       </c>
       <c r="D8">
-        <v>31.70170920853139</v>
+        <v>31.701709208531391</v>
       </c>
       <c r="E8">
-        <v>152.8250000000407</v>
+        <v>152.82500000004069</v>
       </c>
       <c r="G8">
-        <v>0.01116325043939702</v>
+        <v>1.116325043939702E-2</v>
       </c>
       <c r="H8">
         <v>6.977031524623138</v>
       </c>
       <c r="I8">
-        <v>152.8250000000407</v>
+        <v>152.82500000004069</v>
       </c>
       <c r="K8">
-        <v>-0.004796048150602126</v>
+        <v>-4.7960481506021261E-3</v>
       </c>
       <c r="L8">
-        <v>-2.997530094126329</v>
+        <v>-2.9975300941263292</v>
       </c>
       <c r="M8">
-        <v>152.8250000000407</v>
+        <v>152.82500000004069</v>
       </c>
       <c r="O8">
-        <v>0.00971562876683877</v>
+        <v>9.71562876683877E-3</v>
       </c>
       <c r="P8">
-        <v>6.072267979274231</v>
+        <v>6.0722679792742307</v>
       </c>
       <c r="Q8">
-        <v>152.8250000000407</v>
+        <v>152.82500000004069</v>
       </c>
       <c r="S8">
-        <v>-0.003779441567200351</v>
+        <v>-3.7794415672003511E-3</v>
       </c>
       <c r="T8">
-        <v>-2.362150979500219</v>
+        <v>-2.3621509795002189</v>
       </c>
       <c r="U8">
-        <v>152.8250000000407</v>
+        <v>152.82500000004069</v>
       </c>
       <c r="V8">
-        <v>0.01503237533315286</v>
+        <v>1.503237533315286E-2</v>
       </c>
       <c r="W8">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X8">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y8">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z8">
         <v>0.2200837651600665</v>
       </c>
       <c r="AA8">
-        <v>-0.09455421076538201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>-9.4554210765382007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>176.8416666666744</v>
       </c>
       <c r="C9">
-        <v>0.04672753090296287</v>
+        <v>4.6727530902962867E-2</v>
       </c>
       <c r="D9">
-        <v>29.20470681435179</v>
+        <v>29.204706814351791</v>
       </c>
       <c r="E9">
         <v>176.8416666666744</v>
       </c>
       <c r="G9">
-        <v>0.0006562285989078587</v>
+        <v>6.5622859890785866E-4</v>
       </c>
       <c r="H9">
-        <v>0.4101428743174116</v>
+        <v>0.41014287431741159</v>
       </c>
       <c r="I9">
         <v>176.8416666666744</v>
       </c>
       <c r="K9">
-        <v>-0.002706517249084227</v>
+        <v>-2.7065172490842271E-3</v>
       </c>
       <c r="L9">
         <v>-1.691573280677642</v>
@@ -3147,16 +3192,16 @@
         <v>176.8416666666744</v>
       </c>
       <c r="O9">
-        <v>0.01121721025724465</v>
+        <v>1.1217210257244649E-2</v>
       </c>
       <c r="P9">
-        <v>7.010756410777906</v>
+        <v>7.0107564107779057</v>
       </c>
       <c r="Q9">
         <v>176.8416666666744</v>
       </c>
       <c r="S9">
-        <v>-0.001751826736922543</v>
+        <v>-1.7518267369225429E-3</v>
       </c>
       <c r="T9">
         <v>-1.094891710576589</v>
@@ -3165,125 +3210,125 @@
         <v>176.8416666666744</v>
       </c>
       <c r="V9">
-        <v>0.01095478441502734</v>
+        <v>1.0954784415027339E-2</v>
       </c>
       <c r="W9">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X9">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y9">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z9">
-        <v>0.01404372510652492</v>
+        <v>1.4043725106524921E-2</v>
       </c>
       <c r="AA9">
-        <v>-0.057921255345264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>-5.7921255345264003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>201.0083333332732</v>
+        <v>201.00833333327321</v>
       </c>
       <c r="C10">
-        <v>0.03804837436869613</v>
+        <v>3.8048374368696132E-2</v>
       </c>
       <c r="D10">
-        <v>23.78023398043508</v>
+        <v>23.780233980435082</v>
       </c>
       <c r="E10">
-        <v>201.0083333332732</v>
+        <v>201.00833333327321</v>
       </c>
       <c r="G10">
-        <v>-0.005731417133831652</v>
+        <v>-5.7314171338316523E-3</v>
       </c>
       <c r="H10">
         <v>-3.582135708644782</v>
       </c>
       <c r="I10">
-        <v>201.0083333332732</v>
+        <v>201.00833333327321</v>
       </c>
       <c r="K10">
-        <v>-0.000825800883582873</v>
+        <v>-8.2580088358287301E-4</v>
       </c>
       <c r="L10">
-        <v>-0.5161255522392956</v>
+        <v>-0.51612555223929557</v>
       </c>
       <c r="M10">
-        <v>201.0083333332732</v>
+        <v>201.00833333327321</v>
       </c>
       <c r="O10">
-        <v>0.00575891182925448</v>
+        <v>5.7589118292544804E-3</v>
       </c>
       <c r="P10">
-        <v>3.599319893284049</v>
+        <v>3.5993198932840489</v>
       </c>
       <c r="Q10">
-        <v>201.0083333332732</v>
+        <v>201.00833333327321</v>
       </c>
       <c r="S10">
-        <v>0.0005495610204791533</v>
+        <v>5.4956102047915326E-4</v>
       </c>
       <c r="T10">
-        <v>0.3434756377994708</v>
+        <v>0.34347563779947082</v>
       </c>
       <c r="U10">
-        <v>201.0083333332732</v>
+        <v>201.00833333327321</v>
       </c>
       <c r="V10">
-        <v>0.007241347883850516</v>
+        <v>7.2413478838505158E-3</v>
       </c>
       <c r="W10">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X10">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y10">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z10">
-        <v>-0.1506350068545139</v>
+        <v>-0.15063500685451389</v>
       </c>
       <c r="AA10">
-        <v>-0.02170397283155128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>-2.1703972831551281E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>225.5416666666861</v>
       </c>
       <c r="C11">
-        <v>0.0347781004237791</v>
+        <v>3.4778100423779101E-2</v>
       </c>
       <c r="D11">
-        <v>21.73631276486194</v>
+        <v>21.736312764861939</v>
       </c>
       <c r="E11">
         <v>225.5416666666861</v>
       </c>
       <c r="G11">
-        <v>-0.006546093161666599</v>
+        <v>-6.5460931616665987E-3</v>
       </c>
       <c r="H11">
-        <v>-4.091308226041624</v>
+        <v>-4.0913082260416243</v>
       </c>
       <c r="I11">
         <v>225.5416666666861</v>
       </c>
       <c r="K11">
-        <v>0.0009318002590100241</v>
+        <v>9.3180025901002414E-4</v>
       </c>
       <c r="L11">
-        <v>0.582375161881265</v>
+        <v>0.58237516188126504</v>
       </c>
       <c r="M11">
         <v>225.5416666666861</v>
       </c>
       <c r="O11">
-        <v>-0.0001719778198273767</v>
+        <v>-1.7197781982737669E-4</v>
       </c>
       <c r="P11">
         <v>-0.1074861373921104</v>
@@ -3292,107 +3337,107 @@
         <v>225.5416666666861</v>
       </c>
       <c r="S11">
-        <v>0.001239443379435863</v>
+        <v>1.2394433794358629E-3</v>
       </c>
       <c r="T11">
-        <v>0.7746521121474143</v>
+        <v>0.77465211214741425</v>
       </c>
       <c r="U11">
         <v>225.5416666666861</v>
       </c>
       <c r="V11">
-        <v>0.004385742265701595</v>
+        <v>4.385742265701595E-3</v>
       </c>
       <c r="W11">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X11">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y11">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z11">
         <v>-0.18822457471515</v>
       </c>
       <c r="AA11">
-        <v>0.02679273012774778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>2.6792730127747778E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>249.9250000000466</v>
+        <v>249.92500000004659</v>
       </c>
       <c r="C12">
-        <v>0.04162849400323512</v>
+        <v>4.1628494003235123E-2</v>
       </c>
       <c r="D12">
-        <v>26.01780875202195</v>
+        <v>26.017808752021949</v>
       </c>
       <c r="E12">
-        <v>249.9250000000466</v>
+        <v>249.92500000004659</v>
       </c>
       <c r="G12">
-        <v>-0.003101282802348448</v>
+        <v>-3.101282802348448E-3</v>
       </c>
       <c r="H12">
-        <v>-1.93830175146778</v>
+        <v>-1.9383017514677801</v>
       </c>
       <c r="I12">
-        <v>249.9250000000466</v>
+        <v>249.92500000004659</v>
       </c>
       <c r="K12">
-        <v>0.001429767806500895</v>
+        <v>1.4297678065008949E-3</v>
       </c>
       <c r="L12">
-        <v>0.8936048790630594</v>
+        <v>0.89360487906305941</v>
       </c>
       <c r="M12">
-        <v>249.9250000000466</v>
+        <v>249.92500000004659</v>
       </c>
       <c r="O12">
-        <v>-0.0003954479714065127</v>
+        <v>-3.9544797140651268E-4</v>
       </c>
       <c r="P12">
-        <v>-0.2471549821290704</v>
+        <v>-0.24715498212907039</v>
       </c>
       <c r="Q12">
-        <v>249.9250000000466</v>
+        <v>249.92500000004659</v>
       </c>
       <c r="S12">
-        <v>0.0007834250268576351</v>
+        <v>7.8342502685763507E-4</v>
       </c>
       <c r="T12">
         <v>0.4896406417860219</v>
       </c>
       <c r="U12">
-        <v>249.9250000000466</v>
+        <v>249.92500000004659</v>
       </c>
       <c r="V12">
-        <v>0.002515979170425439</v>
+        <v>2.5159791704254392E-3</v>
       </c>
       <c r="W12">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X12">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y12">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z12">
-        <v>-0.07449903909825407</v>
+        <v>-7.4499039098254075E-2</v>
       </c>
       <c r="AA12">
-        <v>0.03434589313727713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>3.434589313727713E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>273.2500000000291</v>
       </c>
       <c r="C13">
-        <v>0.04754900571554745</v>
+        <v>4.7549005715547453E-2</v>
       </c>
       <c r="D13">
         <v>29.71812857221715</v>
@@ -3401,7 +3446,7 @@
         <v>273.2500000000291</v>
       </c>
       <c r="G13">
-        <v>-0.005300431321871955</v>
+        <v>-5.3004313218719548E-3</v>
       </c>
       <c r="H13">
         <v>-3.312769576169972</v>
@@ -3410,185 +3455,185 @@
         <v>273.2500000000291</v>
       </c>
       <c r="K13">
-        <v>0.001045730977131936</v>
+        <v>1.0457309771319361E-3</v>
       </c>
       <c r="L13">
-        <v>0.65358186070746</v>
+        <v>0.65358186070746005</v>
       </c>
       <c r="M13">
         <v>273.2500000000291</v>
       </c>
       <c r="O13">
-        <v>-5.665926413705746E-05</v>
+        <v>-5.6659264137057462E-5</v>
       </c>
       <c r="P13">
-        <v>-0.03541204008566091</v>
+        <v>-3.5412040085660908E-2</v>
       </c>
       <c r="Q13">
         <v>273.2500000000291</v>
       </c>
       <c r="S13">
-        <v>0.001359755586915739</v>
+        <v>1.3597555869157389E-3</v>
       </c>
       <c r="T13">
-        <v>0.8498472418223367</v>
+        <v>0.84984724182233673</v>
       </c>
       <c r="U13">
         <v>273.2500000000291</v>
       </c>
       <c r="V13">
-        <v>0.00142935540499693</v>
+        <v>1.4293554049969301E-3</v>
       </c>
       <c r="W13">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X13">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y13">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z13">
-        <v>-0.1114730211937709</v>
+        <v>-0.11147302119377089</v>
       </c>
       <c r="AA13">
-        <v>0.02199269914049971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>2.199269914049971E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>296.6666666667152</v>
+        <v>296.66666666671517</v>
       </c>
       <c r="C14">
-        <v>0.04450400436057064</v>
+        <v>4.4504004360570643E-2</v>
       </c>
       <c r="D14">
-        <v>27.81500272535665</v>
+        <v>27.815002725356649</v>
       </c>
       <c r="E14">
-        <v>296.6666666667152</v>
+        <v>296.66666666671517</v>
       </c>
       <c r="G14">
-        <v>-0.004598669882946746</v>
+        <v>-4.5986698829467458E-3</v>
       </c>
       <c r="H14">
-        <v>-2.874168676841716</v>
+        <v>-2.8741686768417161</v>
       </c>
       <c r="I14">
-        <v>296.6666666667152</v>
+        <v>296.66666666671517</v>
       </c>
       <c r="K14">
-        <v>0.0001403576122630759</v>
+        <v>1.403576122630759E-4</v>
       </c>
       <c r="L14">
-        <v>0.08772350766442241</v>
+        <v>8.7723507664422412E-2</v>
       </c>
       <c r="M14">
-        <v>296.6666666667152</v>
+        <v>296.66666666671517</v>
       </c>
       <c r="O14">
-        <v>1.882568867213196E-05</v>
+        <v>1.8825688672131959E-5</v>
       </c>
       <c r="P14">
-        <v>0.01176605542008247</v>
+        <v>1.176605542008247E-2</v>
       </c>
       <c r="Q14">
-        <v>296.6666666667152</v>
+        <v>296.66666666671517</v>
       </c>
       <c r="S14">
-        <v>0.001073303961509032</v>
+        <v>1.073303961509032E-3</v>
       </c>
       <c r="T14">
-        <v>0.6708149759431448</v>
+        <v>0.67081497594314476</v>
       </c>
       <c r="U14">
-        <v>296.6666666667152</v>
+        <v>296.66666666671517</v>
       </c>
       <c r="V14">
-        <v>0.0007943836915049124</v>
+        <v>7.9438369150491243E-4</v>
       </c>
       <c r="W14">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X14">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y14">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z14">
-        <v>-0.1033315978869768</v>
+        <v>-0.10333159788697679</v>
       </c>
       <c r="AA14">
-        <v>0.003153819847892811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>3.1538198478928111E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>320.7583333333314</v>
+        <v>320.75833333333139</v>
       </c>
       <c r="C15">
-        <v>0.0378307562856961</v>
+        <v>3.7830756285696099E-2</v>
       </c>
       <c r="D15">
-        <v>23.64422267856006</v>
+        <v>23.644222678560059</v>
       </c>
       <c r="E15">
-        <v>320.7583333333314</v>
+        <v>320.75833333333139</v>
       </c>
       <c r="G15">
-        <v>0.003130193459799686</v>
+        <v>3.130193459799686E-3</v>
       </c>
       <c r="H15">
         <v>1.956370912374803</v>
       </c>
       <c r="I15">
-        <v>320.7583333333314</v>
+        <v>320.75833333333139</v>
       </c>
       <c r="K15">
-        <v>0.0009653239170917652</v>
+        <v>9.6532391709176519E-4</v>
       </c>
       <c r="L15">
-        <v>0.6033274481823532</v>
+        <v>0.60332744818235318</v>
       </c>
       <c r="M15">
-        <v>320.7583333333314</v>
+        <v>320.75833333333139</v>
       </c>
       <c r="O15">
-        <v>-4.270936041241648E-05</v>
+        <v>-4.2709360412416478E-5</v>
       </c>
       <c r="P15">
-        <v>-0.0266933502577603</v>
+        <v>-2.66933502577603E-2</v>
       </c>
       <c r="Q15">
-        <v>320.7583333333314</v>
+        <v>320.75833333333139</v>
       </c>
       <c r="S15">
-        <v>-0.002596331194490393</v>
+        <v>-2.5963311944903929E-3</v>
       </c>
       <c r="T15">
         <v>-1.622706996556496</v>
       </c>
       <c r="U15">
-        <v>320.7583333333314</v>
+        <v>320.75833333333139</v>
       </c>
       <c r="V15">
-        <v>0.0004289950280691797</v>
+        <v>4.2899502806917968E-4</v>
       </c>
       <c r="W15">
-        <v>0.02616751965598943</v>
+        <v>2.616751965598943E-2</v>
       </c>
       <c r="X15">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="Y15">
-        <v>19.56218532619257</v>
+        <v>19.562185326192569</v>
       </c>
       <c r="Z15">
-        <v>0.08274202704700406</v>
+        <v>8.2742027047004063E-2</v>
       </c>
       <c r="AA15">
-        <v>0.02551690771925584</v>
+        <v>2.5516907719255841E-2</v>
       </c>
     </row>
   </sheetData>
